--- a/uploads/holiday/年假导入模板.xlsx
+++ b/uploads/holiday/年假导入模板.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$926</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -6298,7 +6298,7 @@
   <dimension ref="A1:Y926"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -6414,7 +6414,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>10.5</v>
       </c>
       <c r="I3" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -6645,7 +6645,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
@@ -6722,7 +6722,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
@@ -6799,7 +6799,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>14</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -6953,7 +6953,7 @@
         <v>11.5</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
@@ -7184,7 +7184,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -7261,7 +7261,7 @@
         <v>15</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>11</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -7415,7 +7415,7 @@
         <v>12.5</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -7492,7 +7492,7 @@
         <v>9.5</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
@@ -7569,7 +7569,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -7723,7 +7723,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -7800,7 +7800,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -7877,7 +7877,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -7954,7 +7954,7 @@
         <v>14.1</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>5</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -8108,7 +8108,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -8185,7 +8185,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J25" s="3">
         <v>0</v>
@@ -8262,7 +8262,7 @@
         <v>6</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>12.5</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>14</v>
       </c>
       <c r="I28" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -8493,7 +8493,7 @@
         <v>9</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -8570,7 +8570,7 @@
         <v>12</v>
       </c>
       <c r="I30" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
@@ -8647,7 +8647,7 @@
         <v>14</v>
       </c>
       <c r="I31" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
@@ -8724,7 +8724,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -8801,7 +8801,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>10</v>
       </c>
       <c r="I34" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
@@ -8955,7 +8955,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -9032,7 +9032,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>13</v>
       </c>
       <c r="I37" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
@@ -9186,7 +9186,7 @@
         <v>2.4</v>
       </c>
       <c r="I38" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>15</v>
       </c>
       <c r="I39" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -9340,7 +9340,7 @@
         <v>6</v>
       </c>
       <c r="I40" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
@@ -9417,7 +9417,7 @@
         <v>8</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>11.5</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>5</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -9648,7 +9648,7 @@
         <v>14</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>6</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>12</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>10</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -10033,7 +10033,7 @@
         <v>5</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -10110,7 +10110,7 @@
         <v>6.5</v>
       </c>
       <c r="I50" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>-0.5</v>
       </c>
       <c r="I51" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J51" s="3">
         <v>0</v>
@@ -10264,7 +10264,7 @@
         <v>6</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -10341,7 +10341,7 @@
         <v>8</v>
       </c>
       <c r="I53" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J53" s="3">
         <v>0</v>
@@ -10418,7 +10418,7 @@
         <v>9.5</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>15</v>
       </c>
       <c r="I55" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J55" s="3">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>5.2</v>
       </c>
       <c r="I56" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J56" s="3">
         <v>0</v>
@@ -10649,7 +10649,7 @@
         <v>8</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -10726,7 +10726,7 @@
         <v>7</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -10803,7 +10803,7 @@
         <v>10</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -10880,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>6</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -11034,7 +11034,7 @@
         <v>4</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>5</v>
       </c>
       <c r="I63" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J63" s="3">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J64" s="3">
         <v>0</v>
@@ -11265,7 +11265,7 @@
         <v>0.1</v>
       </c>
       <c r="I65" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J65" s="3">
         <v>0</v>
@@ -11342,7 +11342,7 @@
         <v>15</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -11419,7 +11419,7 @@
         <v>3</v>
       </c>
       <c r="I67" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J67" s="3">
         <v>0</v>
@@ -11496,7 +11496,7 @@
         <v>5</v>
       </c>
       <c r="I68" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J68" s="3">
         <v>0</v>
@@ -11573,7 +11573,7 @@
         <v>10</v>
       </c>
       <c r="I69" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J69" s="3">
         <v>0</v>
@@ -11650,7 +11650,7 @@
         <v>-0.5</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -11727,7 +11727,7 @@
         <v>5</v>
       </c>
       <c r="I71" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J71" s="3">
         <v>0</v>
@@ -11804,7 +11804,7 @@
         <v>4</v>
       </c>
       <c r="I72" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -11881,7 +11881,7 @@
         <v>10</v>
       </c>
       <c r="I73" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J73" s="3">
         <v>0</v>
@@ -11958,7 +11958,7 @@
         <v>4</v>
       </c>
       <c r="I74" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J74" s="3">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>10</v>
       </c>
       <c r="I75" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J75" s="3">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>5</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -12189,7 +12189,7 @@
         <v>3</v>
       </c>
       <c r="I77" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J77" s="3">
         <v>0</v>
@@ -12266,7 +12266,7 @@
         <v>5</v>
       </c>
       <c r="I78" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J78" s="3">
         <v>0</v>
@@ -12343,7 +12343,7 @@
         <v>11</v>
       </c>
       <c r="I79" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J79" s="3">
         <v>0</v>
@@ -12420,7 +12420,7 @@
         <v>4.5</v>
       </c>
       <c r="I80" s="3">
-        <v>0</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="J80" s="3">
         <v>0</v>
@@ -12497,7 +12497,7 @@
         <v>5</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -12574,7 +12574,7 @@
         <v>5</v>
       </c>
       <c r="I82" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J82" s="3">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>4</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -12728,7 +12728,7 @@
         <v>5</v>
       </c>
       <c r="I84" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J84" s="3">
         <v>0</v>
@@ -12805,7 +12805,7 @@
         <v>5</v>
       </c>
       <c r="I85" s="3">
-        <v>0</v>
+        <v>8.56</v>
       </c>
       <c r="J85" s="3">
         <v>0</v>
@@ -12882,7 +12882,7 @@
         <v>15</v>
       </c>
       <c r="I86" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J86" s="3">
         <v>0</v>
@@ -12959,7 +12959,7 @@
         <v>3</v>
       </c>
       <c r="I87" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J87" s="3">
         <v>0</v>
@@ -13036,7 +13036,7 @@
         <v>8</v>
       </c>
       <c r="I88" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J88" s="3">
         <v>0</v>
@@ -13113,7 +13113,7 @@
         <v>3</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -13190,7 +13190,7 @@
         <v>2.5</v>
       </c>
       <c r="I90" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J90" s="3">
         <v>0</v>
@@ -13267,7 +13267,7 @@
         <v>5</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -13344,7 +13344,7 @@
         <v>15</v>
       </c>
       <c r="I92" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J92" s="3">
         <v>0</v>
@@ -13421,7 +13421,7 @@
         <v>10</v>
       </c>
       <c r="I93" s="3">
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="J93" s="3">
         <v>0</v>
@@ -13575,7 +13575,7 @@
         <v>15</v>
       </c>
       <c r="I95" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J95" s="3">
         <v>0</v>
@@ -13652,7 +13652,7 @@
         <v>10</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -13729,7 +13729,7 @@
         <v>15</v>
       </c>
       <c r="I97" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J97" s="3">
         <v>0</v>
@@ -13806,7 +13806,7 @@
         <v>2.5</v>
       </c>
       <c r="I98" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J98" s="3">
         <v>0</v>
@@ -13883,7 +13883,7 @@
         <v>9</v>
       </c>
       <c r="I99" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J99" s="3">
         <v>0</v>
@@ -13960,7 +13960,7 @@
         <v>4</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -14037,7 +14037,7 @@
         <v>5</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -14114,7 +14114,7 @@
         <v>4</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J103" s="3">
         <v>0</v>
@@ -14268,7 +14268,7 @@
         <v>10</v>
       </c>
       <c r="I104" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J104" s="3">
         <v>0</v>
@@ -14345,7 +14345,7 @@
         <v>5</v>
       </c>
       <c r="I105" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J105" s="3">
         <v>0</v>
@@ -14422,7 +14422,7 @@
         <v>10</v>
       </c>
       <c r="I106" s="3">
-        <v>0</v>
+        <v>12.059999999999999</v>
       </c>
       <c r="J106" s="3">
         <v>0</v>
@@ -14499,7 +14499,7 @@
         <v>15</v>
       </c>
       <c r="I107" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J107" s="3">
         <v>0</v>
@@ -14576,7 +14576,7 @@
         <v>7</v>
       </c>
       <c r="I108" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J108" s="3">
         <v>0</v>
@@ -14653,7 +14653,7 @@
         <v>7</v>
       </c>
       <c r="I109" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J109" s="3">
         <v>0</v>
@@ -14730,7 +14730,7 @@
         <v>10</v>
       </c>
       <c r="I110" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J110" s="3">
         <v>0</v>
@@ -14807,7 +14807,7 @@
         <v>10</v>
       </c>
       <c r="I111" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J111" s="3">
         <v>0</v>
@@ -14884,7 +14884,7 @@
         <v>11</v>
       </c>
       <c r="I112" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J112" s="3">
         <v>0</v>
@@ -14961,7 +14961,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="3">
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="J113" s="3">
         <v>0</v>
@@ -15038,7 +15038,7 @@
         <v>5</v>
       </c>
       <c r="I114" s="3">
-        <v>0</v>
+        <v>9.2099999999999991</v>
       </c>
       <c r="J114" s="3">
         <v>0</v>
@@ -15115,7 +15115,7 @@
         <v>5</v>
       </c>
       <c r="I115" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J115" s="3">
         <v>0</v>
@@ -15192,7 +15192,7 @@
         <v>10</v>
       </c>
       <c r="I116" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J116" s="3">
         <v>0</v>
@@ -15269,7 +15269,7 @@
         <v>10</v>
       </c>
       <c r="I117" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J117" s="3">
         <v>0</v>
@@ -15346,7 +15346,7 @@
         <v>10</v>
       </c>
       <c r="I118" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J118" s="3">
         <v>0</v>
@@ -15423,7 +15423,7 @@
         <v>10</v>
       </c>
       <c r="I119" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J119" s="3">
         <v>0</v>
@@ -15500,7 +15500,7 @@
         <v>5</v>
       </c>
       <c r="I120" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J120" s="3">
         <v>0</v>
@@ -15577,7 +15577,7 @@
         <v>10</v>
       </c>
       <c r="I121" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J121" s="3">
         <v>0</v>
@@ -15654,7 +15654,7 @@
         <v>5</v>
       </c>
       <c r="I122" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J122" s="3">
         <v>0</v>
@@ -15731,7 +15731,7 @@
         <v>9</v>
       </c>
       <c r="I123" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J123" s="3">
         <v>0</v>
@@ -15808,7 +15808,7 @@
         <v>9</v>
       </c>
       <c r="I124" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J124" s="3">
         <v>0</v>
@@ -15885,7 +15885,7 @@
         <v>1.5</v>
       </c>
       <c r="I125" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J125" s="3">
         <v>0</v>
@@ -15962,7 +15962,7 @@
         <v>5</v>
       </c>
       <c r="I126" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J126" s="3">
         <v>0</v>
@@ -16039,7 +16039,7 @@
         <v>4.5</v>
       </c>
       <c r="I127" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J127" s="3">
         <v>0</v>
@@ -16116,7 +16116,7 @@
         <v>4.5</v>
       </c>
       <c r="I128" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J128" s="3">
         <v>0</v>
@@ -16193,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J129" s="3">
         <v>0</v>
@@ -16270,7 +16270,7 @@
         <v>4.5</v>
       </c>
       <c r="I130" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J130" s="3">
         <v>0</v>
@@ -16347,7 +16347,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J131" s="3">
         <v>0</v>
@@ -16424,7 +16424,7 @@
         <v>6.5</v>
       </c>
       <c r="I132" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J132" s="3">
         <v>0</v>
@@ -16501,7 +16501,7 @@
         <v>12.5</v>
       </c>
       <c r="I133" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J133" s="3">
         <v>0</v>
@@ -16578,7 +16578,7 @@
         <v>7.5</v>
       </c>
       <c r="I134" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J134" s="3">
         <v>0</v>
@@ -16655,7 +16655,7 @@
         <v>5</v>
       </c>
       <c r="I135" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J135" s="3">
         <v>0</v>
@@ -16732,7 +16732,7 @@
         <v>5</v>
       </c>
       <c r="I136" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J136" s="3">
         <v>0</v>
@@ -16809,7 +16809,7 @@
         <v>13</v>
       </c>
       <c r="I137" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J137" s="3">
         <v>0</v>
@@ -16886,7 +16886,7 @@
         <v>9</v>
       </c>
       <c r="I138" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J138" s="3">
         <v>0</v>
@@ -16963,7 +16963,7 @@
         <v>13</v>
       </c>
       <c r="I139" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J139" s="3">
         <v>0</v>
@@ -17040,7 +17040,7 @@
         <v>9</v>
       </c>
       <c r="I140" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J140" s="3">
         <v>0</v>
@@ -17117,7 +17117,7 @@
         <v>4</v>
       </c>
       <c r="I141" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J141" s="3">
         <v>0</v>
@@ -17194,7 +17194,7 @@
         <v>3</v>
       </c>
       <c r="I142" s="3">
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="J142" s="3">
         <v>0</v>
@@ -17271,7 +17271,7 @@
         <v>10</v>
       </c>
       <c r="I143" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J143" s="3">
         <v>0</v>
@@ -17348,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="I144" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J144" s="3">
         <v>0</v>
@@ -17425,7 +17425,7 @@
         <v>10</v>
       </c>
       <c r="I145" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J145" s="3">
         <v>0</v>
@@ -17502,7 +17502,7 @@
         <v>3</v>
       </c>
       <c r="I146" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J146" s="3">
         <v>0</v>
@@ -17579,7 +17579,7 @@
         <v>5</v>
       </c>
       <c r="I147" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J147" s="3">
         <v>0</v>
@@ -17656,7 +17656,7 @@
         <v>5</v>
       </c>
       <c r="I148" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J148" s="3">
         <v>0</v>
@@ -17733,7 +17733,7 @@
         <v>4</v>
       </c>
       <c r="I149" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J149" s="3">
         <v>0</v>
@@ -17810,7 +17810,7 @@
         <v>9.9</v>
       </c>
       <c r="I150" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J150" s="3">
         <v>0</v>
@@ -17887,7 +17887,7 @@
         <v>3</v>
       </c>
       <c r="I151" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J151" s="3">
         <v>0</v>
@@ -17964,7 +17964,7 @@
         <v>10</v>
       </c>
       <c r="I152" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J152" s="3">
         <v>0</v>
@@ -18041,7 +18041,7 @@
         <v>8</v>
       </c>
       <c r="I153" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J153" s="3">
         <v>0</v>
@@ -18118,7 +18118,7 @@
         <v>10</v>
       </c>
       <c r="I154" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J154" s="3">
         <v>0</v>
@@ -18195,7 +18195,7 @@
         <v>4</v>
       </c>
       <c r="I155" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J155" s="3">
         <v>0</v>
@@ -18272,7 +18272,7 @@
         <v>4.5</v>
       </c>
       <c r="I156" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J156" s="3">
         <v>0</v>
@@ -18349,7 +18349,7 @@
         <v>5</v>
       </c>
       <c r="I157" s="3">
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="J157" s="3">
         <v>0</v>
@@ -18426,7 +18426,7 @@
         <v>10</v>
       </c>
       <c r="I158" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J158" s="3">
         <v>0</v>
@@ -18503,7 +18503,7 @@
         <v>5</v>
       </c>
       <c r="I159" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J159" s="3">
         <v>0</v>
@@ -18580,7 +18580,7 @@
         <v>13</v>
       </c>
       <c r="I160" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J160" s="3">
         <v>0</v>
@@ -18657,7 +18657,7 @@
         <v>4</v>
       </c>
       <c r="I161" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J161" s="3">
         <v>0</v>
@@ -18734,7 +18734,7 @@
         <v>5</v>
       </c>
       <c r="I162" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J162" s="3">
         <v>0</v>
@@ -18811,7 +18811,7 @@
         <v>4</v>
       </c>
       <c r="I163" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J163" s="3">
         <v>0</v>
@@ -18888,7 +18888,7 @@
         <v>5</v>
       </c>
       <c r="I164" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J164" s="3">
         <v>0</v>
@@ -18965,7 +18965,7 @@
         <v>3</v>
       </c>
       <c r="I165" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J165" s="3">
         <v>0</v>
@@ -19042,7 +19042,7 @@
         <v>2</v>
       </c>
       <c r="I166" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J166" s="3">
         <v>0</v>
@@ -19119,7 +19119,7 @@
         <v>10</v>
       </c>
       <c r="I167" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J167" s="3">
         <v>0</v>
@@ -19196,7 +19196,7 @@
         <v>5</v>
       </c>
       <c r="I168" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J168" s="3">
         <v>0</v>
@@ -19273,7 +19273,7 @@
         <v>7.5</v>
       </c>
       <c r="I169" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J169" s="3">
         <v>0</v>
@@ -19350,7 +19350,7 @@
         <v>6</v>
       </c>
       <c r="I170" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J170" s="3">
         <v>0</v>
@@ -19427,7 +19427,7 @@
         <v>9.5</v>
       </c>
       <c r="I171" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J171" s="3">
         <v>0</v>
@@ -19504,7 +19504,7 @@
         <v>15</v>
       </c>
       <c r="I172" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J172" s="3">
         <v>0</v>
@@ -19581,7 +19581,7 @@
         <v>3</v>
       </c>
       <c r="I173" s="3">
-        <v>0</v>
+        <v>11.22</v>
       </c>
       <c r="J173" s="3">
         <v>0</v>
@@ -19658,7 +19658,7 @@
         <v>3.5</v>
       </c>
       <c r="I174" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J174" s="3">
         <v>0</v>
@@ -19735,7 +19735,7 @@
         <v>13</v>
       </c>
       <c r="I175" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J175" s="3">
         <v>0</v>
@@ -19812,7 +19812,7 @@
         <v>9</v>
       </c>
       <c r="I176" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J176" s="3">
         <v>0</v>
@@ -19889,7 +19889,7 @@
         <v>10</v>
       </c>
       <c r="I177" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J177" s="3">
         <v>0</v>
@@ -19966,7 +19966,7 @@
         <v>12.5</v>
       </c>
       <c r="I178" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J178" s="3">
         <v>0</v>
@@ -20043,7 +20043,7 @@
         <v>9.5</v>
       </c>
       <c r="I179" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J179" s="3">
         <v>0</v>
@@ -20120,7 +20120,7 @@
         <v>14</v>
       </c>
       <c r="I180" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J180" s="3">
         <v>0</v>
@@ -20197,7 +20197,7 @@
         <v>7</v>
       </c>
       <c r="I181" s="3">
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="J181" s="3">
         <v>0</v>
@@ -20274,7 +20274,7 @@
         <v>4</v>
       </c>
       <c r="I182" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J182" s="3">
         <v>0</v>
@@ -20351,7 +20351,7 @@
         <v>9</v>
       </c>
       <c r="I183" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J183" s="3">
         <v>0</v>
@@ -20428,7 +20428,7 @@
         <v>5</v>
       </c>
       <c r="I184" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J184" s="3">
         <v>0</v>
@@ -20505,7 +20505,7 @@
         <v>2</v>
       </c>
       <c r="I185" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J185" s="3">
         <v>0</v>
@@ -20582,7 +20582,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J186" s="3">
         <v>0</v>
@@ -20659,7 +20659,7 @@
         <v>5</v>
       </c>
       <c r="I187" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J187" s="3">
         <v>0</v>
@@ -20736,7 +20736,7 @@
         <v>5</v>
       </c>
       <c r="I188" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J188" s="3">
         <v>0</v>
@@ -20813,7 +20813,7 @@
         <v>3</v>
       </c>
       <c r="I189" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J189" s="3">
         <v>0</v>
@@ -20890,7 +20890,7 @@
         <v>15</v>
       </c>
       <c r="I190" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J190" s="3">
         <v>0</v>
@@ -20967,7 +20967,7 @@
         <v>12.1</v>
       </c>
       <c r="I191" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J191" s="3">
         <v>0</v>
@@ -21044,7 +21044,7 @@
         <v>7</v>
       </c>
       <c r="I192" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J192" s="3">
         <v>0</v>
@@ -21121,7 +21121,7 @@
         <v>15</v>
       </c>
       <c r="I193" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J193" s="3">
         <v>0</v>
@@ -21198,7 +21198,7 @@
         <v>10</v>
       </c>
       <c r="I194" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J194" s="3">
         <v>0</v>
@@ -21275,7 +21275,7 @@
         <v>5</v>
       </c>
       <c r="I195" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J195" s="3">
         <v>0</v>
@@ -21352,7 +21352,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="I196" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J196" s="3">
         <v>0</v>
@@ -21429,7 +21429,7 @@
         <v>5</v>
       </c>
       <c r="I197" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J197" s="3">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>12</v>
       </c>
       <c r="I198" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J198" s="3">
         <v>0</v>
@@ -21583,7 +21583,7 @@
         <v>14</v>
       </c>
       <c r="I199" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J199" s="3">
         <v>0</v>
@@ -21660,7 +21660,7 @@
         <v>10</v>
       </c>
       <c r="I200" s="3">
-        <v>0</v>
+        <v>12.059999999999999</v>
       </c>
       <c r="J200" s="3">
         <v>0</v>
@@ -21737,7 +21737,7 @@
         <v>6</v>
       </c>
       <c r="I201" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J201" s="3">
         <v>0</v>
@@ -21814,7 +21814,7 @@
         <v>10</v>
       </c>
       <c r="I202" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J202" s="3">
         <v>0</v>
@@ -21891,7 +21891,7 @@
         <v>5</v>
       </c>
       <c r="I203" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J203" s="3">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>10</v>
       </c>
       <c r="I204" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J204" s="3">
         <v>0</v>
@@ -22045,7 +22045,7 @@
         <v>5</v>
       </c>
       <c r="I205" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J205" s="3">
         <v>0</v>
@@ -22122,7 +22122,7 @@
         <v>7</v>
       </c>
       <c r="I206" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J206" s="3">
         <v>0</v>
@@ -22199,7 +22199,7 @@
         <v>5</v>
       </c>
       <c r="I207" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J207" s="3">
         <v>0</v>
@@ -22276,7 +22276,7 @@
         <v>1</v>
       </c>
       <c r="I208" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J208" s="3">
         <v>0</v>
@@ -22353,7 +22353,7 @@
         <v>13</v>
       </c>
       <c r="I209" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J209" s="3">
         <v>0</v>
@@ -22430,7 +22430,7 @@
         <v>4</v>
       </c>
       <c r="I210" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J210" s="3">
         <v>0</v>
@@ -22507,7 +22507,7 @@
         <v>15</v>
       </c>
       <c r="I211" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J211" s="3">
         <v>0</v>
@@ -22584,7 +22584,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I212" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J212" s="3">
         <v>0</v>
@@ -22661,7 +22661,7 @@
         <v>5</v>
       </c>
       <c r="I213" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J213" s="3">
         <v>0</v>
@@ -22738,7 +22738,7 @@
         <v>10</v>
       </c>
       <c r="I214" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J214" s="3">
         <v>0</v>
@@ -22815,7 +22815,7 @@
         <v>10</v>
       </c>
       <c r="I215" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J215" s="3">
         <v>0</v>
@@ -22892,7 +22892,7 @@
         <v>10</v>
       </c>
       <c r="I216" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J216" s="3">
         <v>0</v>
@@ -22969,7 +22969,7 @@
         <v>7</v>
       </c>
       <c r="I217" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J217" s="3">
         <v>0</v>
@@ -23046,7 +23046,7 @@
         <v>7.9</v>
       </c>
       <c r="I218" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J218" s="3">
         <v>0</v>
@@ -23123,7 +23123,7 @@
         <v>10</v>
       </c>
       <c r="I219" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J219" s="3">
         <v>0</v>
@@ -23200,7 +23200,7 @@
         <v>10</v>
       </c>
       <c r="I220" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J220" s="3">
         <v>0</v>
@@ -23277,7 +23277,7 @@
         <v>15</v>
       </c>
       <c r="I221" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J221" s="3">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>9</v>
       </c>
       <c r="I222" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J222" s="3">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>6</v>
       </c>
       <c r="I223" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J223" s="3">
         <v>0</v>
@@ -23508,7 +23508,7 @@
         <v>2.5</v>
       </c>
       <c r="I224" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J224" s="3">
         <v>0</v>
@@ -23585,7 +23585,7 @@
         <v>10</v>
       </c>
       <c r="I225" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J225" s="3">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>8</v>
       </c>
       <c r="I226" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J226" s="3">
         <v>0</v>
@@ -23739,7 +23739,7 @@
         <v>4</v>
       </c>
       <c r="I227" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J227" s="3">
         <v>0</v>
@@ -23816,7 +23816,7 @@
         <v>1</v>
       </c>
       <c r="I228" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J228" s="3">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>13</v>
       </c>
       <c r="I229" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J229" s="3">
         <v>0</v>
@@ -23970,7 +23970,7 @@
         <v>7</v>
       </c>
       <c r="I230" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J230" s="3">
         <v>0</v>
@@ -24047,7 +24047,7 @@
         <v>15</v>
       </c>
       <c r="I231" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J231" s="3">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         <v>5</v>
       </c>
       <c r="I232" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J232" s="3">
         <v>0</v>
@@ -24201,7 +24201,7 @@
         <v>5</v>
       </c>
       <c r="I233" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J233" s="3">
         <v>0</v>
@@ -24278,7 +24278,7 @@
         <v>11.7</v>
       </c>
       <c r="I234" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J234" s="3">
         <v>0</v>
@@ -24355,7 +24355,7 @@
         <v>10</v>
       </c>
       <c r="I235" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J235" s="3">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>15</v>
       </c>
       <c r="I236" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J236" s="3">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>10</v>
       </c>
       <c r="I237" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J237" s="3">
         <v>0</v>
@@ -24586,7 +24586,7 @@
         <v>7</v>
       </c>
       <c r="I238" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J238" s="3">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="I239" s="3">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J239" s="3">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>10</v>
       </c>
       <c r="I240" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J240" s="3">
         <v>0</v>
@@ -24817,7 +24817,7 @@
         <v>5</v>
       </c>
       <c r="I241" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J241" s="3">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>10</v>
       </c>
       <c r="I242" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J242" s="3">
         <v>0</v>
@@ -24971,7 +24971,7 @@
         <v>11</v>
       </c>
       <c r="I243" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J243" s="3">
         <v>0</v>
@@ -25048,7 +25048,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="I244" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J244" s="3">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>14</v>
       </c>
       <c r="I245" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J245" s="3">
         <v>0</v>
@@ -25202,7 +25202,7 @@
         <v>5</v>
       </c>
       <c r="I246" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J246" s="3">
         <v>0</v>
@@ -25279,7 +25279,7 @@
         <v>0</v>
       </c>
       <c r="I247" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J247" s="3">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>6</v>
       </c>
       <c r="I248" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J248" s="3">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>15</v>
       </c>
       <c r="I249" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J249" s="3">
         <v>0</v>
@@ -25510,7 +25510,7 @@
         <v>7.5</v>
       </c>
       <c r="I250" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J250" s="3">
         <v>0</v>
@@ -25587,7 +25587,7 @@
         <v>10</v>
       </c>
       <c r="I251" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J251" s="3">
         <v>0</v>
@@ -25664,7 +25664,7 @@
         <v>3.5</v>
       </c>
       <c r="I252" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J252" s="3">
         <v>0</v>
@@ -25741,7 +25741,7 @@
         <v>6</v>
       </c>
       <c r="I253" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J253" s="3">
         <v>0</v>
@@ -25818,7 +25818,7 @@
         <v>8</v>
       </c>
       <c r="I254" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J254" s="3">
         <v>0</v>
@@ -25895,7 +25895,7 @@
         <v>9</v>
       </c>
       <c r="I255" s="3">
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="J255" s="3">
         <v>0</v>
@@ -25972,7 +25972,7 @@
         <v>9.5</v>
       </c>
       <c r="I256" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J256" s="3">
         <v>0</v>
@@ -26049,7 +26049,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J257" s="3">
         <v>0</v>
@@ -26126,7 +26126,7 @@
         <v>4</v>
       </c>
       <c r="I258" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J258" s="3">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>15</v>
       </c>
       <c r="I259" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J259" s="3">
         <v>0</v>
@@ -26280,7 +26280,7 @@
         <v>2</v>
       </c>
       <c r="I260" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J260" s="3">
         <v>0</v>
@@ -26357,7 +26357,7 @@
         <v>10</v>
       </c>
       <c r="I261" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J261" s="3">
         <v>0</v>
@@ -26434,7 +26434,7 @@
         <v>14.8</v>
       </c>
       <c r="I262" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J262" s="3">
         <v>0</v>
@@ -26511,7 +26511,7 @@
         <v>5.2</v>
       </c>
       <c r="I263" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J263" s="3">
         <v>0</v>
@@ -26588,7 +26588,7 @@
         <v>1</v>
       </c>
       <c r="I264" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J264" s="3">
         <v>0</v>
@@ -26665,7 +26665,7 @@
         <v>1</v>
       </c>
       <c r="I265" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J265" s="3">
         <v>0</v>
@@ -26742,7 +26742,7 @@
         <v>15</v>
       </c>
       <c r="I266" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J266" s="3">
         <v>0</v>
@@ -26819,7 +26819,7 @@
         <v>5</v>
       </c>
       <c r="I267" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J267" s="3">
         <v>0</v>
@@ -26896,7 +26896,7 @@
         <v>4</v>
       </c>
       <c r="I268" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J268" s="3">
         <v>0</v>
@@ -26973,7 +26973,7 @@
         <v>4.5</v>
       </c>
       <c r="I269" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J269" s="3">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>10</v>
       </c>
       <c r="I270" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J270" s="3">
         <v>0</v>
@@ -27127,7 +27127,7 @@
         <v>12.5</v>
       </c>
       <c r="I271" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J271" s="3">
         <v>0</v>
@@ -27204,7 +27204,7 @@
         <v>6</v>
       </c>
       <c r="I272" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J272" s="3">
         <v>0</v>
@@ -27281,7 +27281,7 @@
         <v>7</v>
       </c>
       <c r="I273" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J273" s="3">
         <v>0</v>
@@ -27358,7 +27358,7 @@
         <v>15</v>
       </c>
       <c r="I274" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J274" s="3">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>13</v>
       </c>
       <c r="I275" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J275" s="3">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>10</v>
       </c>
       <c r="I276" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J276" s="3">
         <v>0</v>
@@ -27589,7 +27589,7 @@
         <v>7.5</v>
       </c>
       <c r="I277" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J277" s="3">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>4</v>
       </c>
       <c r="I278" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J278" s="3">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>9</v>
       </c>
       <c r="I279" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J279" s="3">
         <v>0</v>
@@ -27820,7 +27820,7 @@
         <v>15</v>
       </c>
       <c r="I280" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J280" s="3">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>10</v>
       </c>
       <c r="I281" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J281" s="3">
         <v>0</v>
@@ -27974,7 +27974,7 @@
         <v>11</v>
       </c>
       <c r="I282" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J282" s="3">
         <v>0</v>
@@ -28051,7 +28051,7 @@
         <v>5</v>
       </c>
       <c r="I283" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J283" s="3">
         <v>0</v>
@@ -28128,7 +28128,7 @@
         <v>5</v>
       </c>
       <c r="I284" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J284" s="3">
         <v>0</v>
@@ -28205,7 +28205,7 @@
         <v>10</v>
       </c>
       <c r="I285" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J285" s="3">
         <v>0</v>
@@ -28282,7 +28282,7 @@
         <v>5</v>
       </c>
       <c r="I286" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J286" s="3">
         <v>0</v>
@@ -28359,7 +28359,7 @@
         <v>10</v>
       </c>
       <c r="I287" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J287" s="3">
         <v>0</v>
@@ -28436,7 +28436,7 @@
         <v>4</v>
       </c>
       <c r="I288" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J288" s="3">
         <v>0</v>
@@ -28513,7 +28513,7 @@
         <v>11</v>
       </c>
       <c r="I289" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J289" s="3">
         <v>0</v>
@@ -28590,7 +28590,7 @@
         <v>9</v>
       </c>
       <c r="I290" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J290" s="3">
         <v>0</v>
@@ -28667,7 +28667,7 @@
         <v>7.5</v>
       </c>
       <c r="I291" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J291" s="3">
         <v>0</v>
@@ -28744,7 +28744,7 @@
         <v>4.5</v>
       </c>
       <c r="I292" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J292" s="3">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>12.5</v>
       </c>
       <c r="I293" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J293" s="3">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>9</v>
       </c>
       <c r="I294" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J294" s="3">
         <v>0</v>
@@ -28975,7 +28975,7 @@
         <v>3</v>
       </c>
       <c r="I295" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J295" s="3">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>5</v>
       </c>
       <c r="I296" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J296" s="3">
         <v>0</v>
@@ -29129,7 +29129,7 @@
         <v>3</v>
       </c>
       <c r="I297" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J297" s="3">
         <v>0</v>
@@ -29206,7 +29206,7 @@
         <v>5</v>
       </c>
       <c r="I298" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J298" s="3">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>2.5</v>
       </c>
       <c r="I299" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J299" s="3">
         <v>0</v>
@@ -29360,7 +29360,7 @@
         <v>0</v>
       </c>
       <c r="I300" s="3">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J300" s="3">
         <v>0</v>
@@ -29437,7 +29437,7 @@
         <v>9</v>
       </c>
       <c r="I301" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J301" s="3">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>10</v>
       </c>
       <c r="I302" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J302" s="3">
         <v>0</v>
@@ -29591,7 +29591,7 @@
         <v>12</v>
       </c>
       <c r="I303" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J303" s="3">
         <v>0</v>
@@ -29668,7 +29668,7 @@
         <v>6.5</v>
       </c>
       <c r="I304" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J304" s="3">
         <v>0</v>
@@ -29745,7 +29745,7 @@
         <v>5</v>
       </c>
       <c r="I305" s="3">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J305" s="3">
         <v>0</v>
@@ -29822,7 +29822,7 @@
         <v>3</v>
       </c>
       <c r="I306" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J306" s="3">
         <v>0</v>
@@ -29899,7 +29899,7 @@
         <v>10</v>
       </c>
       <c r="I307" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J307" s="3">
         <v>0</v>
@@ -29976,7 +29976,7 @@
         <v>5</v>
       </c>
       <c r="I308" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J308" s="3">
         <v>0</v>
@@ -30053,7 +30053,7 @@
         <v>3</v>
       </c>
       <c r="I309" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J309" s="3">
         <v>0</v>
@@ -30130,7 +30130,7 @@
         <v>5.7</v>
       </c>
       <c r="I310" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J310" s="3">
         <v>0</v>
@@ -30207,7 +30207,7 @@
         <v>15</v>
       </c>
       <c r="I311" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J311" s="3">
         <v>0</v>
@@ -30284,7 +30284,7 @@
         <v>0</v>
       </c>
       <c r="I312" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J312" s="3">
         <v>0</v>
@@ -30361,7 +30361,7 @@
         <v>10.5</v>
       </c>
       <c r="I313" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J313" s="3">
         <v>0</v>
@@ -30438,7 +30438,7 @@
         <v>5</v>
       </c>
       <c r="I314" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J314" s="3">
         <v>0</v>
@@ -30515,7 +30515,7 @@
         <v>4</v>
       </c>
       <c r="I315" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J315" s="3">
         <v>0</v>
@@ -30592,7 +30592,7 @@
         <v>4</v>
       </c>
       <c r="I316" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J316" s="3">
         <v>0</v>
@@ -30669,7 +30669,7 @@
         <v>12</v>
       </c>
       <c r="I317" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J317" s="3">
         <v>0</v>
@@ -30746,7 +30746,7 @@
         <v>15</v>
       </c>
       <c r="I318" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J318" s="3">
         <v>0</v>
@@ -30823,7 +30823,7 @@
         <v>5</v>
       </c>
       <c r="I319" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J319" s="3">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0.5</v>
       </c>
       <c r="I320" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J320" s="3">
         <v>0</v>
@@ -30977,7 +30977,7 @@
         <v>-0.5</v>
       </c>
       <c r="I321" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J321" s="3">
         <v>0</v>
@@ -31054,7 +31054,7 @@
         <v>3.5</v>
       </c>
       <c r="I322" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J322" s="3">
         <v>0</v>
@@ -31131,7 +31131,7 @@
         <v>5</v>
       </c>
       <c r="I323" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J323" s="3">
         <v>0</v>
@@ -31208,7 +31208,7 @@
         <v>4.5</v>
       </c>
       <c r="I324" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J324" s="3">
         <v>0</v>
@@ -31285,7 +31285,7 @@
         <v>5</v>
       </c>
       <c r="I325" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J325" s="3">
         <v>0</v>
@@ -31362,7 +31362,7 @@
         <v>-0.5</v>
       </c>
       <c r="I326" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J326" s="3">
         <v>0</v>
@@ -31439,7 +31439,7 @@
         <v>0.5</v>
       </c>
       <c r="I327" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J327" s="3">
         <v>0</v>
@@ -31516,7 +31516,7 @@
         <v>2.5</v>
       </c>
       <c r="I328" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J328" s="3">
         <v>0</v>
@@ -31593,7 +31593,7 @@
         <v>2.5</v>
       </c>
       <c r="I329" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J329" s="3">
         <v>0</v>
@@ -31670,7 +31670,7 @@
         <v>2.5</v>
       </c>
       <c r="I330" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J330" s="3">
         <v>0</v>
@@ -31747,7 +31747,7 @@
         <v>2.5</v>
       </c>
       <c r="I331" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J331" s="3">
         <v>0</v>
@@ -31824,7 +31824,7 @@
         <v>0.5</v>
       </c>
       <c r="I332" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J332" s="3">
         <v>0</v>
@@ -31901,7 +31901,7 @@
         <v>-0.5</v>
       </c>
       <c r="I333" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J333" s="3">
         <v>0</v>
@@ -31978,7 +31978,7 @@
         <v>5</v>
       </c>
       <c r="I334" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J334" s="3">
         <v>0</v>
@@ -32055,7 +32055,7 @@
         <v>2.8</v>
       </c>
       <c r="I335" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J335" s="3">
         <v>0</v>
@@ -32132,7 +32132,7 @@
         <v>5.8</v>
       </c>
       <c r="I336" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J336" s="3">
         <v>0</v>
@@ -32209,7 +32209,7 @@
         <v>4.7</v>
       </c>
       <c r="I337" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J337" s="3">
         <v>0</v>
@@ -32286,7 +32286,7 @@
         <v>15</v>
       </c>
       <c r="I338" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J338" s="3">
         <v>0</v>
@@ -32363,7 +32363,7 @@
         <v>10</v>
       </c>
       <c r="I339" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J339" s="3">
         <v>0</v>
@@ -32440,7 +32440,7 @@
         <v>9.5</v>
       </c>
       <c r="I340" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J340" s="3">
         <v>0</v>
@@ -32517,7 +32517,7 @@
         <v>4.2</v>
       </c>
       <c r="I341" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J341" s="3">
         <v>0</v>
@@ -32594,7 +32594,7 @@
         <v>10</v>
       </c>
       <c r="I342" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J342" s="3">
         <v>0</v>
@@ -32671,7 +32671,7 @@
         <v>15</v>
       </c>
       <c r="I343" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J343" s="3">
         <v>0</v>
@@ -32748,7 +32748,7 @@
         <v>4</v>
       </c>
       <c r="I344" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J344" s="3">
         <v>0</v>
@@ -32825,7 +32825,7 @@
         <v>10</v>
       </c>
       <c r="I345" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J345" s="3">
         <v>0</v>
@@ -32902,7 +32902,7 @@
         <v>6</v>
       </c>
       <c r="I346" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J346" s="3">
         <v>0</v>
@@ -32979,7 +32979,7 @@
         <v>7</v>
       </c>
       <c r="I347" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J347" s="3">
         <v>0</v>
@@ -33056,7 +33056,7 @@
         <v>14</v>
       </c>
       <c r="I348" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J348" s="3">
         <v>0</v>
@@ -33133,7 +33133,7 @@
         <v>10</v>
       </c>
       <c r="I349" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J349" s="3">
         <v>0</v>
@@ -33210,7 +33210,7 @@
         <v>4</v>
       </c>
       <c r="I350" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J350" s="3">
         <v>0</v>
@@ -33287,7 +33287,7 @@
         <v>9.9</v>
       </c>
       <c r="I351" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J351" s="3">
         <v>0</v>
@@ -33364,7 +33364,7 @@
         <v>10</v>
       </c>
       <c r="I352" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J352" s="3">
         <v>0</v>
@@ -33441,7 +33441,7 @@
         <v>9</v>
       </c>
       <c r="I353" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J353" s="3">
         <v>0</v>
@@ -33518,7 +33518,7 @@
         <v>7</v>
       </c>
       <c r="I354" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J354" s="3">
         <v>0</v>
@@ -33595,7 +33595,7 @@
         <v>6</v>
       </c>
       <c r="I355" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J355" s="3">
         <v>0</v>
@@ -33672,7 +33672,7 @@
         <v>5</v>
       </c>
       <c r="I356" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J356" s="3">
         <v>0</v>
@@ -33749,7 +33749,7 @@
         <v>10</v>
       </c>
       <c r="I357" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J357" s="3">
         <v>0</v>
@@ -33826,7 +33826,7 @@
         <v>10</v>
       </c>
       <c r="I358" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J358" s="3">
         <v>0</v>
@@ -33903,7 +33903,7 @@
         <v>5</v>
       </c>
       <c r="I359" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J359" s="3">
         <v>0</v>
@@ -33980,7 +33980,7 @@
         <v>7</v>
       </c>
       <c r="I360" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J360" s="3">
         <v>0</v>
@@ -34057,7 +34057,7 @@
         <v>15</v>
       </c>
       <c r="I361" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J361" s="3">
         <v>0</v>
@@ -34134,7 +34134,7 @@
         <v>15</v>
       </c>
       <c r="I362" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J362" s="3">
         <v>0</v>
@@ -34211,7 +34211,7 @@
         <v>4</v>
       </c>
       <c r="I363" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J363" s="3">
         <v>0</v>
@@ -34288,7 +34288,7 @@
         <v>8</v>
       </c>
       <c r="I364" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J364" s="3">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>8</v>
       </c>
       <c r="I365" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J365" s="3">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>5</v>
       </c>
       <c r="I366" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J366" s="3">
         <v>0</v>
@@ -34519,7 +34519,7 @@
         <v>9</v>
       </c>
       <c r="I367" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J367" s="3">
         <v>0</v>
@@ -34596,7 +34596,7 @@
         <v>9</v>
       </c>
       <c r="I368" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J368" s="3">
         <v>0</v>
@@ -34673,7 +34673,7 @@
         <v>15</v>
       </c>
       <c r="I369" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J369" s="3">
         <v>0</v>
@@ -34750,7 +34750,7 @@
         <v>10</v>
       </c>
       <c r="I370" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J370" s="3">
         <v>0</v>
@@ -34827,7 +34827,7 @@
         <v>10</v>
       </c>
       <c r="I371" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J371" s="3">
         <v>0</v>
@@ -34904,7 +34904,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="I372" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J372" s="3">
         <v>0</v>
@@ -34981,7 +34981,7 @@
         <v>6.2</v>
       </c>
       <c r="I373" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J373" s="3">
         <v>0</v>
@@ -35058,7 +35058,7 @@
         <v>10</v>
       </c>
       <c r="I374" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J374" s="3">
         <v>0</v>
@@ -35135,7 +35135,7 @@
         <v>-0.1</v>
       </c>
       <c r="I375" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J375" s="3">
         <v>0</v>
@@ -35212,7 +35212,7 @@
         <v>10</v>
       </c>
       <c r="I376" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J376" s="3">
         <v>0</v>
@@ -35289,7 +35289,7 @@
         <v>3</v>
       </c>
       <c r="I377" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J377" s="3">
         <v>0</v>
@@ -35366,7 +35366,7 @@
         <v>4</v>
       </c>
       <c r="I378" s="3">
-        <v>0</v>
+        <v>6.65</v>
       </c>
       <c r="J378" s="3">
         <v>0</v>
@@ -35443,7 +35443,7 @@
         <v>5</v>
       </c>
       <c r="I379" s="3">
-        <v>0</v>
+        <v>6.65</v>
       </c>
       <c r="J379" s="3">
         <v>0</v>
@@ -35520,7 +35520,7 @@
         <v>5</v>
       </c>
       <c r="I380" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J380" s="3">
         <v>0</v>
@@ -35597,7 +35597,7 @@
         <v>5</v>
       </c>
       <c r="I381" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J381" s="3">
         <v>0</v>
@@ -35674,7 +35674,7 @@
         <v>7</v>
       </c>
       <c r="I382" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J382" s="3">
         <v>0</v>
@@ -35751,7 +35751,7 @@
         <v>5</v>
       </c>
       <c r="I383" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J383" s="3">
         <v>0</v>
@@ -35828,7 +35828,7 @@
         <v>5</v>
       </c>
       <c r="I384" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J384" s="3">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>2</v>
       </c>
       <c r="I385" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J385" s="3">
         <v>0</v>
@@ -35982,7 +35982,7 @@
         <v>10</v>
       </c>
       <c r="I386" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J386" s="3">
         <v>0</v>
@@ -36059,7 +36059,7 @@
         <v>10</v>
       </c>
       <c r="I387" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J387" s="3">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>1</v>
       </c>
       <c r="I388" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J388" s="3">
         <v>0</v>
@@ -36213,7 +36213,7 @@
         <v>2</v>
       </c>
       <c r="I389" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J389" s="3">
         <v>0</v>
@@ -36290,7 +36290,7 @@
         <v>0</v>
       </c>
       <c r="I390" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J390" s="3">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>10</v>
       </c>
       <c r="I391" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J391" s="3">
         <v>0</v>
@@ -36444,7 +36444,7 @@
         <v>3</v>
       </c>
       <c r="I392" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J392" s="3">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>0</v>
       </c>
       <c r="I393" s="3">
-        <v>0</v>
+        <v>9.17</v>
       </c>
       <c r="J393" s="3">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>5</v>
       </c>
       <c r="I394" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J394" s="3">
         <v>0</v>
@@ -36675,7 +36675,7 @@
         <v>7</v>
       </c>
       <c r="I395" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J395" s="3">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="I396" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J396" s="3">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>5</v>
       </c>
       <c r="I397" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J397" s="3">
         <v>0</v>
@@ -36906,7 +36906,7 @@
         <v>6.5</v>
       </c>
       <c r="I398" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J398" s="3">
         <v>0</v>
@@ -36983,7 +36983,7 @@
         <v>6</v>
       </c>
       <c r="I399" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J399" s="3">
         <v>0</v>
@@ -37060,7 +37060,7 @@
         <v>10</v>
       </c>
       <c r="I400" s="3">
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="J400" s="3">
         <v>0</v>
@@ -37137,7 +37137,7 @@
         <v>8</v>
       </c>
       <c r="I401" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J401" s="3">
         <v>0</v>
@@ -37214,7 +37214,7 @@
         <v>3</v>
       </c>
       <c r="I402" s="3">
-        <v>0</v>
+        <v>5.1199999999999992</v>
       </c>
       <c r="J402" s="3">
         <v>0</v>
@@ -37291,7 +37291,7 @@
         <v>7.5</v>
       </c>
       <c r="I403" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J403" s="3">
         <v>0</v>
@@ -37368,7 +37368,7 @@
         <v>3.5</v>
       </c>
       <c r="I404" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J404" s="3">
         <v>0</v>
@@ -37445,7 +37445,7 @@
         <v>4</v>
       </c>
       <c r="I405" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J405" s="3">
         <v>0</v>
@@ -37522,7 +37522,7 @@
         <v>1</v>
       </c>
       <c r="I406" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J406" s="3">
         <v>0</v>
@@ -37599,7 +37599,7 @@
         <v>2</v>
       </c>
       <c r="I407" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J407" s="3">
         <v>0</v>
@@ -37676,7 +37676,7 @@
         <v>5</v>
       </c>
       <c r="I408" s="3">
-        <v>0</v>
+        <v>5.1199999999999992</v>
       </c>
       <c r="J408" s="3">
         <v>0</v>
@@ -37753,7 +37753,7 @@
         <v>11.5</v>
       </c>
       <c r="I409" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J409" s="3">
         <v>0</v>
@@ -37830,7 +37830,7 @@
         <v>10</v>
       </c>
       <c r="I410" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J410" s="3">
         <v>0</v>
@@ -37907,7 +37907,7 @@
         <v>10</v>
       </c>
       <c r="I411" s="3">
-        <v>0</v>
+        <v>11.22</v>
       </c>
       <c r="J411" s="3">
         <v>0</v>
@@ -37984,7 +37984,7 @@
         <v>10</v>
       </c>
       <c r="I412" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J412" s="3">
         <v>0</v>
@@ -38061,7 +38061,7 @@
         <v>4</v>
       </c>
       <c r="I413" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J413" s="3">
         <v>0</v>
@@ -38138,7 +38138,7 @@
         <v>5</v>
       </c>
       <c r="I414" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J414" s="3">
         <v>0</v>
@@ -38215,7 +38215,7 @@
         <v>5</v>
       </c>
       <c r="I415" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J415" s="3">
         <v>0</v>
@@ -38292,7 +38292,7 @@
         <v>5</v>
       </c>
       <c r="I416" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J416" s="3">
         <v>0</v>
@@ -38369,7 +38369,7 @@
         <v>3</v>
       </c>
       <c r="I417" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J417" s="3">
         <v>0</v>
@@ -38446,7 +38446,7 @@
         <v>5</v>
       </c>
       <c r="I418" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J418" s="3">
         <v>0</v>
@@ -38523,7 +38523,7 @@
         <v>3</v>
       </c>
       <c r="I419" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J419" s="3">
         <v>0</v>
@@ -38600,7 +38600,7 @@
         <v>0</v>
       </c>
       <c r="I420" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J420" s="3">
         <v>0</v>
@@ -38677,7 +38677,7 @@
         <v>3</v>
       </c>
       <c r="I421" s="3">
-        <v>0</v>
+        <v>11.629999999999999</v>
       </c>
       <c r="J421" s="3">
         <v>0</v>
@@ -38754,7 +38754,7 @@
         <v>0</v>
       </c>
       <c r="I422" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J422" s="3">
         <v>0</v>
@@ -38831,7 +38831,7 @@
         <v>1</v>
       </c>
       <c r="I423" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J423" s="3">
         <v>0</v>
@@ -38908,7 +38908,7 @@
         <v>5</v>
       </c>
       <c r="I424" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J424" s="3">
         <v>0</v>
@@ -38985,7 +38985,7 @@
         <v>5</v>
       </c>
       <c r="I425" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J425" s="3">
         <v>0</v>
@@ -39062,7 +39062,7 @@
         <v>5</v>
       </c>
       <c r="I426" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J426" s="3">
         <v>0</v>
@@ -39139,7 +39139,7 @@
         <v>5</v>
       </c>
       <c r="I427" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J427" s="3">
         <v>0</v>
@@ -39216,7 +39216,7 @@
         <v>5</v>
       </c>
       <c r="I428" s="3">
-        <v>0</v>
+        <v>9.17</v>
       </c>
       <c r="J428" s="3">
         <v>0</v>
@@ -39293,7 +39293,7 @@
         <v>15</v>
       </c>
       <c r="I429" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J429" s="3">
         <v>0</v>
@@ -39370,7 +39370,7 @@
         <v>3</v>
       </c>
       <c r="I430" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J430" s="3">
         <v>0</v>
@@ -39447,7 +39447,7 @@
         <v>7.5</v>
       </c>
       <c r="I431" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J431" s="3">
         <v>0</v>
@@ -39524,7 +39524,7 @@
         <v>10</v>
       </c>
       <c r="I432" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J432" s="3">
         <v>0</v>
@@ -39601,7 +39601,7 @@
         <v>3</v>
       </c>
       <c r="I433" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J433" s="3">
         <v>0</v>
@@ -39678,7 +39678,7 @@
         <v>10</v>
       </c>
       <c r="I434" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J434" s="3">
         <v>0</v>
@@ -39755,7 +39755,7 @@
         <v>5</v>
       </c>
       <c r="I435" s="3">
-        <v>0</v>
+        <v>7.0600000000000005</v>
       </c>
       <c r="J435" s="3">
         <v>0</v>
@@ -39832,7 +39832,7 @@
         <v>8</v>
       </c>
       <c r="I436" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J436" s="3">
         <v>0</v>
@@ -39909,7 +39909,7 @@
         <v>5</v>
       </c>
       <c r="I437" s="3">
-        <v>0</v>
+        <v>7.91</v>
       </c>
       <c r="J437" s="3">
         <v>0</v>
@@ -39986,7 +39986,7 @@
         <v>5</v>
       </c>
       <c r="I438" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J438" s="3">
         <v>0</v>
@@ -40063,7 +40063,7 @@
         <v>8</v>
       </c>
       <c r="I439" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J439" s="3">
         <v>0</v>
@@ -40140,7 +40140,7 @@
         <v>10</v>
       </c>
       <c r="I440" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J440" s="3">
         <v>0</v>
@@ -40217,7 +40217,7 @@
         <v>10</v>
       </c>
       <c r="I441" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J441" s="3">
         <v>0</v>
@@ -40294,7 +40294,7 @@
         <v>5</v>
       </c>
       <c r="I442" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J442" s="3">
         <v>0</v>
@@ -40371,7 +40371,7 @@
         <v>5</v>
       </c>
       <c r="I443" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J443" s="3">
         <v>0</v>
@@ -40448,7 +40448,7 @@
         <v>5</v>
       </c>
       <c r="I444" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J444" s="3">
         <v>0</v>
@@ -40525,7 +40525,7 @@
         <v>0</v>
       </c>
       <c r="I445" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J445" s="3">
         <v>0</v>
@@ -40602,7 +40602,7 @@
         <v>3.5</v>
       </c>
       <c r="I446" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J446" s="3">
         <v>0</v>
@@ -40679,7 +40679,7 @@
         <v>0</v>
       </c>
       <c r="I447" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J447" s="3">
         <v>0</v>
@@ -40756,7 +40756,7 @@
         <v>10</v>
       </c>
       <c r="I448" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J448" s="3">
         <v>0</v>
@@ -40833,7 +40833,7 @@
         <v>5</v>
       </c>
       <c r="I449" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J449" s="3">
         <v>0</v>
@@ -40910,7 +40910,7 @@
         <v>5</v>
       </c>
       <c r="I450" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J450" s="3">
         <v>0</v>
@@ -40987,7 +40987,7 @@
         <v>3</v>
       </c>
       <c r="I451" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J451" s="3">
         <v>0</v>
@@ -41064,7 +41064,7 @@
         <v>6</v>
       </c>
       <c r="I452" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J452" s="3">
         <v>0</v>
@@ -41141,7 +41141,7 @@
         <v>10</v>
       </c>
       <c r="I453" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J453" s="3">
         <v>0</v>
@@ -41218,7 +41218,7 @@
         <v>9</v>
       </c>
       <c r="I454" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J454" s="3">
         <v>0</v>
@@ -41295,7 +41295,7 @@
         <v>4</v>
       </c>
       <c r="I455" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J455" s="3">
         <v>0</v>
@@ -41372,7 +41372,7 @@
         <v>14</v>
       </c>
       <c r="I456" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J456" s="3">
         <v>0</v>
@@ -41449,7 +41449,7 @@
         <v>10</v>
       </c>
       <c r="I457" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J457" s="3">
         <v>0</v>
@@ -41526,7 +41526,7 @@
         <v>2</v>
       </c>
       <c r="I458" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J458" s="3">
         <v>0</v>
@@ -41603,7 +41603,7 @@
         <v>5</v>
       </c>
       <c r="I459" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J459" s="3">
         <v>0</v>
@@ -41680,7 +41680,7 @@
         <v>5</v>
       </c>
       <c r="I460" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J460" s="3">
         <v>0</v>
@@ -41757,7 +41757,7 @@
         <v>5</v>
       </c>
       <c r="I461" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J461" s="3">
         <v>0</v>
@@ -41834,7 +41834,7 @@
         <v>5</v>
       </c>
       <c r="I462" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J462" s="3">
         <v>0</v>
@@ -41911,7 +41911,7 @@
         <v>10</v>
       </c>
       <c r="I463" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J463" s="3">
         <v>0</v>
@@ -41988,7 +41988,7 @@
         <v>4</v>
       </c>
       <c r="I464" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J464" s="3">
         <v>0</v>
@@ -42065,7 +42065,7 @@
         <v>5</v>
       </c>
       <c r="I465" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J465" s="3">
         <v>0</v>
@@ -42142,7 +42142,7 @@
         <v>5</v>
       </c>
       <c r="I466" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J466" s="3">
         <v>0</v>
@@ -42219,7 +42219,7 @@
         <v>5</v>
       </c>
       <c r="I467" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J467" s="3">
         <v>0</v>
@@ -42296,7 +42296,7 @@
         <v>5</v>
       </c>
       <c r="I468" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J468" s="3">
         <v>0</v>
@@ -42373,7 +42373,7 @@
         <v>10</v>
       </c>
       <c r="I469" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J469" s="3">
         <v>0</v>
@@ -42450,7 +42450,7 @@
         <v>5</v>
       </c>
       <c r="I470" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J470" s="3">
         <v>0</v>
@@ -42527,7 +42527,7 @@
         <v>5</v>
       </c>
       <c r="I471" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J471" s="3">
         <v>0</v>
@@ -42604,7 +42604,7 @@
         <v>8</v>
       </c>
       <c r="I472" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J472" s="3">
         <v>0</v>
@@ -42681,7 +42681,7 @@
         <v>10</v>
       </c>
       <c r="I473" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J473" s="3">
         <v>0</v>
@@ -42758,7 +42758,7 @@
         <v>5</v>
       </c>
       <c r="I474" s="3">
-        <v>0</v>
+        <v>7.91</v>
       </c>
       <c r="J474" s="3">
         <v>0</v>
@@ -42835,7 +42835,7 @@
         <v>0</v>
       </c>
       <c r="I475" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J475" s="3">
         <v>0</v>
@@ -42912,7 +42912,7 @@
         <v>0</v>
       </c>
       <c r="I476" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J476" s="3">
         <v>0</v>
@@ -42989,7 +42989,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I477" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J477" s="3">
         <v>0</v>
@@ -43066,7 +43066,7 @@
         <v>5</v>
       </c>
       <c r="I478" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J478" s="3">
         <v>0</v>
@@ -43143,7 +43143,7 @@
         <v>5</v>
       </c>
       <c r="I479" s="3">
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="J479" s="3">
         <v>0</v>
@@ -43220,7 +43220,7 @@
         <v>5</v>
       </c>
       <c r="I480" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J480" s="3">
         <v>0</v>
@@ -43297,7 +43297,7 @@
         <v>5</v>
       </c>
       <c r="I481" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J481" s="3">
         <v>0</v>
@@ -43374,7 +43374,7 @@
         <v>5</v>
       </c>
       <c r="I482" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J482" s="3">
         <v>0</v>
@@ -43451,7 +43451,7 @@
         <v>10</v>
       </c>
       <c r="I483" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J483" s="3">
         <v>0</v>
@@ -43528,7 +43528,7 @@
         <v>3</v>
       </c>
       <c r="I484" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J484" s="3">
         <v>0</v>
@@ -43605,7 +43605,7 @@
         <v>5</v>
       </c>
       <c r="I485" s="3">
-        <v>0</v>
+        <v>8.56</v>
       </c>
       <c r="J485" s="3">
         <v>0</v>
@@ -43682,7 +43682,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="I486" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J486" s="3">
         <v>0</v>
@@ -43759,7 +43759,7 @@
         <v>5</v>
       </c>
       <c r="I487" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J487" s="3">
         <v>0</v>
@@ -43836,7 +43836,7 @@
         <v>3</v>
       </c>
       <c r="I488" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J488" s="3">
         <v>0</v>
@@ -43913,7 +43913,7 @@
         <v>3</v>
       </c>
       <c r="I489" s="3">
-        <v>0</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="J489" s="3">
         <v>0</v>
@@ -43990,7 +43990,7 @@
         <v>5</v>
       </c>
       <c r="I490" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J490" s="3">
         <v>0</v>
@@ -44067,7 +44067,7 @@
         <v>10</v>
       </c>
       <c r="I491" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J491" s="3">
         <v>0</v>
@@ -44144,7 +44144,7 @@
         <v>5</v>
       </c>
       <c r="I492" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J492" s="3">
         <v>0</v>
@@ -44221,7 +44221,7 @@
         <v>5</v>
       </c>
       <c r="I493" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J493" s="3">
         <v>0</v>
@@ -44298,7 +44298,7 @@
         <v>5</v>
       </c>
       <c r="I494" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J494" s="3">
         <v>0</v>
@@ -44375,7 +44375,7 @@
         <v>4</v>
       </c>
       <c r="I495" s="3">
-        <v>0</v>
+        <v>8.74</v>
       </c>
       <c r="J495" s="3">
         <v>0</v>
@@ -44452,7 +44452,7 @@
         <v>5</v>
       </c>
       <c r="I496" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J496" s="3">
         <v>0</v>
@@ -44529,7 +44529,7 @@
         <v>5</v>
       </c>
       <c r="I497" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J497" s="3">
         <v>0</v>
@@ -44606,7 +44606,7 @@
         <v>5</v>
       </c>
       <c r="I498" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J498" s="3">
         <v>0</v>
@@ -44683,7 +44683,7 @@
         <v>5</v>
       </c>
       <c r="I499" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J499" s="3">
         <v>0</v>
@@ -44760,7 +44760,7 @@
         <v>5</v>
       </c>
       <c r="I500" s="3">
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="J500" s="3">
         <v>0</v>
@@ -44837,7 +44837,7 @@
         <v>5</v>
       </c>
       <c r="I501" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J501" s="3">
         <v>0</v>
@@ -44914,7 +44914,7 @@
         <v>5</v>
       </c>
       <c r="I502" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J502" s="3">
         <v>0</v>
@@ -44991,7 +44991,7 @@
         <v>2</v>
       </c>
       <c r="I503" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J503" s="3">
         <v>0</v>
@@ -45068,7 +45068,7 @@
         <v>5</v>
       </c>
       <c r="I504" s="3">
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="J504" s="3">
         <v>0</v>
@@ -45145,7 +45145,7 @@
         <v>2</v>
       </c>
       <c r="I505" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J505" s="3">
         <v>0</v>
@@ -45222,7 +45222,7 @@
         <v>3</v>
       </c>
       <c r="I506" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J506" s="3">
         <v>0</v>
@@ -45299,7 +45299,7 @@
         <v>10</v>
       </c>
       <c r="I507" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J507" s="3">
         <v>0</v>
@@ -45376,7 +45376,7 @@
         <v>5</v>
       </c>
       <c r="I508" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J508" s="3">
         <v>0</v>
@@ -45453,7 +45453,7 @@
         <v>5</v>
       </c>
       <c r="I509" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J509" s="3">
         <v>0</v>
@@ -45530,7 +45530,7 @@
         <v>10</v>
       </c>
       <c r="I510" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J510" s="3">
         <v>0</v>
@@ -45607,7 +45607,7 @@
         <v>6</v>
       </c>
       <c r="I511" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J511" s="3">
         <v>0</v>
@@ -45684,7 +45684,7 @@
         <v>9</v>
       </c>
       <c r="I512" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J512" s="3">
         <v>0</v>
@@ -45761,7 +45761,7 @@
         <v>10</v>
       </c>
       <c r="I513" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J513" s="3">
         <v>0</v>
@@ -45838,7 +45838,7 @@
         <v>5</v>
       </c>
       <c r="I514" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J514" s="3">
         <v>0</v>
@@ -45915,7 +45915,7 @@
         <v>5</v>
       </c>
       <c r="I515" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J515" s="3">
         <v>0</v>
@@ -45992,7 +45992,7 @@
         <v>7</v>
       </c>
       <c r="I516" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J516" s="3">
         <v>0</v>
@@ -46069,7 +46069,7 @@
         <v>3</v>
       </c>
       <c r="I517" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J517" s="3">
         <v>0</v>
@@ -46146,7 +46146,7 @@
         <v>2</v>
       </c>
       <c r="I518" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J518" s="3">
         <v>0</v>
@@ -46223,7 +46223,7 @@
         <v>5</v>
       </c>
       <c r="I519" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J519" s="3">
         <v>0</v>
@@ -46300,7 +46300,7 @@
         <v>5</v>
       </c>
       <c r="I520" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J520" s="3">
         <v>0</v>
@@ -46377,7 +46377,7 @@
         <v>5</v>
       </c>
       <c r="I521" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J521" s="3">
         <v>0</v>
@@ -46454,7 +46454,7 @@
         <v>5</v>
       </c>
       <c r="I522" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J522" s="3">
         <v>0</v>
@@ -46531,7 +46531,7 @@
         <v>5</v>
       </c>
       <c r="I523" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J523" s="3">
         <v>0</v>
@@ -46608,7 +46608,7 @@
         <v>5</v>
       </c>
       <c r="I524" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J524" s="3">
         <v>0</v>
@@ -46685,7 +46685,7 @@
         <v>5</v>
       </c>
       <c r="I525" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J525" s="3">
         <v>0</v>
@@ -46762,7 +46762,7 @@
         <v>5</v>
       </c>
       <c r="I526" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J526" s="3">
         <v>0</v>
@@ -46839,7 +46839,7 @@
         <v>5</v>
       </c>
       <c r="I527" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J527" s="3">
         <v>0</v>
@@ -46916,7 +46916,7 @@
         <v>10</v>
       </c>
       <c r="I528" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J528" s="3">
         <v>0</v>
@@ -46993,7 +46993,7 @@
         <v>2.5</v>
       </c>
       <c r="I529" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J529" s="3">
         <v>0</v>
@@ -47070,7 +47070,7 @@
         <v>3</v>
       </c>
       <c r="I530" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J530" s="3">
         <v>0</v>
@@ -47147,7 +47147,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="I531" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J531" s="3">
         <v>0</v>
@@ -47224,7 +47224,7 @@
         <v>5</v>
       </c>
       <c r="I532" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J532" s="3">
         <v>0</v>
@@ -47301,7 +47301,7 @@
         <v>5</v>
       </c>
       <c r="I533" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J533" s="3">
         <v>0</v>
@@ -47378,7 +47378,7 @@
         <v>10</v>
       </c>
       <c r="I534" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J534" s="3">
         <v>0</v>
@@ -47455,7 +47455,7 @@
         <v>5</v>
       </c>
       <c r="I535" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J535" s="3">
         <v>0</v>
@@ -47532,7 +47532,7 @@
         <v>5</v>
       </c>
       <c r="I536" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J536" s="3">
         <v>0</v>
@@ -47609,7 +47609,7 @@
         <v>5</v>
       </c>
       <c r="I537" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J537" s="3">
         <v>0</v>
@@ -47686,7 +47686,7 @@
         <v>5</v>
       </c>
       <c r="I538" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J538" s="3">
         <v>0</v>
@@ -47763,7 +47763,7 @@
         <v>5</v>
       </c>
       <c r="I539" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J539" s="3">
         <v>0</v>
@@ -47840,7 +47840,7 @@
         <v>5</v>
       </c>
       <c r="I540" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J540" s="3">
         <v>0</v>
@@ -47917,7 +47917,7 @@
         <v>6.5</v>
       </c>
       <c r="I541" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J541" s="3">
         <v>0</v>
@@ -47994,7 +47994,7 @@
         <v>0</v>
       </c>
       <c r="I542" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J542" s="3">
         <v>0</v>
@@ -48071,7 +48071,7 @@
         <v>4.5</v>
       </c>
       <c r="I543" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J543" s="3">
         <v>0</v>
@@ -48148,7 +48148,7 @@
         <v>5</v>
       </c>
       <c r="I544" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J544" s="3">
         <v>0</v>
@@ -48225,7 +48225,7 @@
         <v>5</v>
       </c>
       <c r="I545" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J545" s="3">
         <v>0</v>
@@ -48302,7 +48302,7 @@
         <v>14.9</v>
       </c>
       <c r="I546" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J546" s="3">
         <v>0</v>
@@ -48379,7 +48379,7 @@
         <v>10</v>
       </c>
       <c r="I547" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J547" s="3">
         <v>0</v>
@@ -48456,7 +48456,7 @@
         <v>4</v>
       </c>
       <c r="I548" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J548" s="3">
         <v>0</v>
@@ -48533,7 +48533,7 @@
         <v>3</v>
       </c>
       <c r="I549" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J549" s="3">
         <v>0</v>
@@ -48610,7 +48610,7 @@
         <v>5</v>
       </c>
       <c r="I550" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J550" s="3">
         <v>0</v>
@@ -48687,7 +48687,7 @@
         <v>-0.5</v>
       </c>
       <c r="I551" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J551" s="3">
         <v>0</v>
@@ -48764,7 +48764,7 @@
         <v>15</v>
       </c>
       <c r="I552" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J552" s="3">
         <v>0</v>
@@ -48841,7 +48841,7 @@
         <v>5</v>
       </c>
       <c r="I553" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J553" s="3">
         <v>0</v>
@@ -48918,7 +48918,7 @@
         <v>4.8</v>
       </c>
       <c r="I554" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J554" s="3">
         <v>0</v>
@@ -48995,7 +48995,7 @@
         <v>1</v>
       </c>
       <c r="I555" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J555" s="3">
         <v>0</v>
@@ -49072,7 +49072,7 @@
         <v>15</v>
       </c>
       <c r="I556" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J556" s="3">
         <v>0</v>
@@ -49149,7 +49149,7 @@
         <v>15</v>
       </c>
       <c r="I557" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J557" s="3">
         <v>0</v>
@@ -49226,7 +49226,7 @@
         <v>11.2</v>
       </c>
       <c r="I558" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J558" s="3">
         <v>0</v>
@@ -49303,7 +49303,7 @@
         <v>8</v>
       </c>
       <c r="I559" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J559" s="3">
         <v>0</v>
@@ -49380,7 +49380,7 @@
         <v>15</v>
       </c>
       <c r="I560" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J560" s="3">
         <v>0</v>
@@ -49457,7 +49457,7 @@
         <v>15</v>
       </c>
       <c r="I561" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J561" s="3">
         <v>0</v>
@@ -49534,7 +49534,7 @@
         <v>15</v>
       </c>
       <c r="I562" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J562" s="3">
         <v>0</v>
@@ -49611,7 +49611,7 @@
         <v>15</v>
       </c>
       <c r="I563" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J563" s="3">
         <v>0</v>
@@ -49688,7 +49688,7 @@
         <v>13</v>
       </c>
       <c r="I564" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J564" s="3">
         <v>0</v>
@@ -49765,7 +49765,7 @@
         <v>1.5</v>
       </c>
       <c r="I565" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J565" s="3">
         <v>0</v>
@@ -49842,7 +49842,7 @@
         <v>5</v>
       </c>
       <c r="I566" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J566" s="3">
         <v>0</v>
@@ -49919,7 +49919,7 @@
         <v>10</v>
       </c>
       <c r="I567" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J567" s="3">
         <v>0</v>
@@ -49996,7 +49996,7 @@
         <v>5</v>
       </c>
       <c r="I568" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J568" s="3">
         <v>0</v>
@@ -50073,7 +50073,7 @@
         <v>5</v>
       </c>
       <c r="I569" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J569" s="3">
         <v>0</v>
@@ -50150,7 +50150,7 @@
         <v>5</v>
       </c>
       <c r="I570" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J570" s="3">
         <v>0</v>
@@ -50227,7 +50227,7 @@
         <v>5</v>
       </c>
       <c r="I571" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J571" s="3">
         <v>0</v>
@@ -50304,7 +50304,7 @@
         <v>5</v>
       </c>
       <c r="I572" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J572" s="3">
         <v>0</v>
@@ -50381,7 +50381,7 @@
         <v>5</v>
       </c>
       <c r="I573" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J573" s="3">
         <v>0</v>
@@ -50458,7 +50458,7 @@
         <v>5</v>
       </c>
       <c r="I574" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J574" s="3">
         <v>0</v>
@@ -50535,7 +50535,7 @@
         <v>-0.4</v>
       </c>
       <c r="I575" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J575" s="3">
         <v>0</v>
@@ -50612,7 +50612,7 @@
         <v>0</v>
       </c>
       <c r="I576" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J576" s="3">
         <v>0</v>
@@ -50689,7 +50689,7 @@
         <v>10</v>
       </c>
       <c r="I577" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J577" s="3">
         <v>0</v>
@@ -50766,7 +50766,7 @@
         <v>5</v>
       </c>
       <c r="I578" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J578" s="3">
         <v>0</v>
@@ -50843,7 +50843,7 @@
         <v>10</v>
       </c>
       <c r="I579" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J579" s="3">
         <v>0</v>
@@ -50920,7 +50920,7 @@
         <v>4</v>
       </c>
       <c r="I580" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J580" s="3">
         <v>0</v>
@@ -50997,7 +50997,7 @@
         <v>5</v>
       </c>
       <c r="I581" s="3">
-        <v>0</v>
+        <v>7.91</v>
       </c>
       <c r="J581" s="3">
         <v>0</v>
@@ -51074,7 +51074,7 @@
         <v>5</v>
       </c>
       <c r="I582" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J582" s="3">
         <v>0</v>
@@ -51151,7 +51151,7 @@
         <v>5</v>
       </c>
       <c r="I583" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J583" s="3">
         <v>0</v>
@@ -51228,7 +51228,7 @@
         <v>5</v>
       </c>
       <c r="I584" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J584" s="3">
         <v>0</v>
@@ -51305,7 +51305,7 @@
         <v>5</v>
       </c>
       <c r="I585" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J585" s="3">
         <v>0</v>
@@ -51382,7 +51382,7 @@
         <v>5</v>
       </c>
       <c r="I586" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J586" s="3">
         <v>0</v>
@@ -51459,7 +51459,7 @@
         <v>3</v>
       </c>
       <c r="I587" s="3">
-        <v>0</v>
+        <v>7.91</v>
       </c>
       <c r="J587" s="3">
         <v>0</v>
@@ -51536,7 +51536,7 @@
         <v>6.7</v>
       </c>
       <c r="I588" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J588" s="3">
         <v>0</v>
@@ -51613,7 +51613,7 @@
         <v>-0.4</v>
       </c>
       <c r="I589" s="3">
-        <v>0</v>
+        <v>7.91</v>
       </c>
       <c r="J589" s="3">
         <v>0</v>
@@ -51690,7 +51690,7 @@
         <v>-0.3</v>
       </c>
       <c r="I590" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J590" s="3">
         <v>0</v>
@@ -51767,7 +51767,7 @@
         <v>5</v>
       </c>
       <c r="I591" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J591" s="3">
         <v>0</v>
@@ -51844,7 +51844,7 @@
         <v>5</v>
       </c>
       <c r="I592" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J592" s="3">
         <v>0</v>
@@ -51921,7 +51921,7 @@
         <v>9.9</v>
       </c>
       <c r="I593" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J593" s="3">
         <v>0</v>
@@ -51998,7 +51998,7 @@
         <v>6</v>
       </c>
       <c r="I594" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J594" s="3">
         <v>0</v>
@@ -52075,7 +52075,7 @@
         <v>3</v>
       </c>
       <c r="I595" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J595" s="3">
         <v>0</v>
@@ -52152,7 +52152,7 @@
         <v>7</v>
       </c>
       <c r="I596" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J596" s="3">
         <v>0</v>
@@ -52229,7 +52229,7 @@
         <v>5</v>
       </c>
       <c r="I597" s="3">
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="J597" s="3">
         <v>0</v>
@@ -52306,7 +52306,7 @@
         <v>5</v>
       </c>
       <c r="I598" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J598" s="3">
         <v>0</v>
@@ -52383,7 +52383,7 @@
         <v>5</v>
       </c>
       <c r="I599" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J599" s="3">
         <v>0</v>
@@ -52460,7 +52460,7 @@
         <v>5</v>
       </c>
       <c r="I600" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J600" s="3">
         <v>0</v>
@@ -52537,7 +52537,7 @@
         <v>9</v>
       </c>
       <c r="I601" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J601" s="3">
         <v>0</v>
@@ -52614,7 +52614,7 @@
         <v>5</v>
       </c>
       <c r="I602" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J602" s="3">
         <v>0</v>
@@ -52691,7 +52691,7 @@
         <v>5</v>
       </c>
       <c r="I603" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J603" s="3">
         <v>0</v>
@@ -52768,7 +52768,7 @@
         <v>5</v>
       </c>
       <c r="I604" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J604" s="3">
         <v>0</v>
@@ -52845,7 +52845,7 @@
         <v>4</v>
       </c>
       <c r="I605" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J605" s="3">
         <v>0</v>
@@ -52922,7 +52922,7 @@
         <v>10</v>
       </c>
       <c r="I606" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J606" s="3">
         <v>0</v>
@@ -52999,7 +52999,7 @@
         <v>3</v>
       </c>
       <c r="I607" s="3">
-        <v>0</v>
+        <v>8.32</v>
       </c>
       <c r="J607" s="3">
         <v>0</v>
@@ -53076,7 +53076,7 @@
         <v>5</v>
       </c>
       <c r="I608" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J608" s="3">
         <v>0</v>
@@ -53153,7 +53153,7 @@
         <v>10</v>
       </c>
       <c r="I609" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J609" s="3">
         <v>0</v>
@@ -53230,7 +53230,7 @@
         <v>5</v>
       </c>
       <c r="I610" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J610" s="3">
         <v>0</v>
@@ -53307,7 +53307,7 @@
         <v>5</v>
       </c>
       <c r="I611" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J611" s="3">
         <v>0</v>
@@ -53384,7 +53384,7 @@
         <v>10</v>
       </c>
       <c r="I612" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J612" s="3">
         <v>0</v>
@@ -53461,7 +53461,7 @@
         <v>2</v>
       </c>
       <c r="I613" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J613" s="3">
         <v>0</v>
@@ -53538,7 +53538,7 @@
         <v>10</v>
       </c>
       <c r="I614" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J614" s="3">
         <v>0</v>
@@ -53615,7 +53615,7 @@
         <v>5</v>
       </c>
       <c r="I615" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J615" s="3">
         <v>0</v>
@@ -53692,7 +53692,7 @@
         <v>5</v>
       </c>
       <c r="I616" s="3">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="J616" s="3">
         <v>0</v>
@@ -53769,7 +53769,7 @@
         <v>5</v>
       </c>
       <c r="I617" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J617" s="3">
         <v>0</v>
@@ -53846,7 +53846,7 @@
         <v>5</v>
       </c>
       <c r="I618" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J618" s="3">
         <v>0</v>
@@ -53923,7 +53923,7 @@
         <v>5</v>
       </c>
       <c r="I619" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J619" s="3">
         <v>0</v>
@@ -54000,7 +54000,7 @@
         <v>7.9</v>
       </c>
       <c r="I620" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J620" s="3">
         <v>0</v>
@@ -54077,7 +54077,7 @@
         <v>5</v>
       </c>
       <c r="I621" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J621" s="3">
         <v>0</v>
@@ -54154,7 +54154,7 @@
         <v>5</v>
       </c>
       <c r="I622" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J622" s="3">
         <v>0</v>
@@ -54231,7 +54231,7 @@
         <v>10</v>
       </c>
       <c r="I623" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J623" s="3">
         <v>0</v>
@@ -54308,7 +54308,7 @@
         <v>5</v>
       </c>
       <c r="I624" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J624" s="3">
         <v>0</v>
@@ -54385,7 +54385,7 @@
         <v>2</v>
       </c>
       <c r="I625" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J625" s="3">
         <v>0</v>
@@ -54462,7 +54462,7 @@
         <v>5</v>
       </c>
       <c r="I626" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J626" s="3">
         <v>0</v>
@@ -54539,7 +54539,7 @@
         <v>4</v>
       </c>
       <c r="I627" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J627" s="3">
         <v>0</v>
@@ -54616,7 +54616,7 @@
         <v>5</v>
       </c>
       <c r="I628" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J628" s="3">
         <v>0</v>
@@ -54693,7 +54693,7 @@
         <v>0</v>
       </c>
       <c r="I629" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J629" s="3">
         <v>0</v>
@@ -54770,7 +54770,7 @@
         <v>5</v>
       </c>
       <c r="I630" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J630" s="3">
         <v>0</v>
@@ -54847,7 +54847,7 @@
         <v>10</v>
       </c>
       <c r="I631" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J631" s="3">
         <v>0</v>
@@ -54924,7 +54924,7 @@
         <v>5</v>
       </c>
       <c r="I632" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J632" s="3">
         <v>0</v>
@@ -55001,7 +55001,7 @@
         <v>10</v>
       </c>
       <c r="I633" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J633" s="3">
         <v>0</v>
@@ -55078,7 +55078,7 @@
         <v>5</v>
       </c>
       <c r="I634" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J634" s="3">
         <v>0</v>
@@ -55155,7 +55155,7 @@
         <v>10</v>
       </c>
       <c r="I635" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J635" s="3">
         <v>0</v>
@@ -55232,7 +55232,7 @@
         <v>1</v>
       </c>
       <c r="I636" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J636" s="3">
         <v>0</v>
@@ -55309,7 +55309,7 @@
         <v>5</v>
       </c>
       <c r="I637" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J637" s="3">
         <v>0</v>
@@ -55386,7 +55386,7 @@
         <v>5</v>
       </c>
       <c r="I638" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J638" s="3">
         <v>0</v>
@@ -55463,7 +55463,7 @@
         <v>5</v>
       </c>
       <c r="I639" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J639" s="3">
         <v>0</v>
@@ -55540,7 +55540,7 @@
         <v>8</v>
       </c>
       <c r="I640" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J640" s="3">
         <v>0</v>
@@ -55617,7 +55617,7 @@
         <v>5</v>
       </c>
       <c r="I641" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J641" s="3">
         <v>0</v>
@@ -55694,7 +55694,7 @@
         <v>5</v>
       </c>
       <c r="I642" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J642" s="3">
         <v>0</v>
@@ -55771,7 +55771,7 @@
         <v>5</v>
       </c>
       <c r="I643" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J643" s="3">
         <v>0</v>
@@ -55848,7 +55848,7 @@
         <v>10</v>
       </c>
       <c r="I644" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J644" s="3">
         <v>0</v>
@@ -55925,7 +55925,7 @@
         <v>0</v>
       </c>
       <c r="I645" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J645" s="3">
         <v>0</v>
@@ -56002,7 +56002,7 @@
         <v>2</v>
       </c>
       <c r="I646" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J646" s="3">
         <v>0</v>
@@ -56079,7 +56079,7 @@
         <v>5</v>
       </c>
       <c r="I647" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J647" s="3">
         <v>0</v>
@@ -56156,7 +56156,7 @@
         <v>5</v>
       </c>
       <c r="I648" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J648" s="3">
         <v>0</v>
@@ -56233,7 +56233,7 @@
         <v>8</v>
       </c>
       <c r="I649" s="3">
-        <v>0</v>
+        <v>11.73</v>
       </c>
       <c r="J649" s="3">
         <v>0</v>
@@ -56310,7 +56310,7 @@
         <v>5</v>
       </c>
       <c r="I650" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J650" s="3">
         <v>0</v>
@@ -56387,7 +56387,7 @@
         <v>5</v>
       </c>
       <c r="I651" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J651" s="3">
         <v>0</v>
@@ -56464,7 +56464,7 @@
         <v>5</v>
       </c>
       <c r="I652" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J652" s="3">
         <v>0</v>
@@ -56541,7 +56541,7 @@
         <v>5</v>
       </c>
       <c r="I653" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J653" s="3">
         <v>0</v>
@@ -56618,7 +56618,7 @@
         <v>5</v>
       </c>
       <c r="I654" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J654" s="3">
         <v>0</v>
@@ -56695,7 +56695,7 @@
         <v>2</v>
       </c>
       <c r="I655" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J655" s="3">
         <v>0</v>
@@ -56772,7 +56772,7 @@
         <v>10</v>
       </c>
       <c r="I656" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J656" s="3">
         <v>0</v>
@@ -56849,7 +56849,7 @@
         <v>5</v>
       </c>
       <c r="I657" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J657" s="3">
         <v>0</v>
@@ -56926,7 +56926,7 @@
         <v>5</v>
       </c>
       <c r="I658" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J658" s="3">
         <v>0</v>
@@ -57003,7 +57003,7 @@
         <v>5</v>
       </c>
       <c r="I659" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J659" s="3">
         <v>0</v>
@@ -57080,7 +57080,7 @@
         <v>5</v>
       </c>
       <c r="I660" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J660" s="3">
         <v>0</v>
@@ -57157,7 +57157,7 @@
         <v>5</v>
       </c>
       <c r="I661" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J661" s="3">
         <v>0</v>
@@ -57234,7 +57234,7 @@
         <v>5</v>
       </c>
       <c r="I662" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J662" s="3">
         <v>0</v>
@@ -57311,7 +57311,7 @@
         <v>4</v>
       </c>
       <c r="I663" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J663" s="3">
         <v>0</v>
@@ -57388,7 +57388,7 @@
         <v>4.8</v>
       </c>
       <c r="I664" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J664" s="3">
         <v>0</v>
@@ -57465,7 +57465,7 @@
         <v>9.5</v>
       </c>
       <c r="I665" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J665" s="3">
         <v>0</v>
@@ -57542,7 +57542,7 @@
         <v>4</v>
       </c>
       <c r="I666" s="3">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="J666" s="3">
         <v>0</v>
@@ -57619,7 +57619,7 @@
         <v>5</v>
       </c>
       <c r="I667" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J667" s="3">
         <v>0</v>
@@ -57696,7 +57696,7 @@
         <v>9.6</v>
       </c>
       <c r="I668" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J668" s="3">
         <v>0</v>
@@ -57773,7 +57773,7 @@
         <v>4.5</v>
       </c>
       <c r="I669" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J669" s="3">
         <v>0</v>
@@ -57850,7 +57850,7 @@
         <v>5</v>
       </c>
       <c r="I670" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J670" s="3">
         <v>0</v>
@@ -57927,7 +57927,7 @@
         <v>3.4</v>
       </c>
       <c r="I671" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J671" s="3">
         <v>0</v>
@@ -58004,7 +58004,7 @@
         <v>5</v>
       </c>
       <c r="I672" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J672" s="3">
         <v>0</v>
@@ -58081,7 +58081,7 @@
         <v>5</v>
       </c>
       <c r="I673" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J673" s="3">
         <v>0</v>
@@ -58158,7 +58158,7 @@
         <v>5</v>
       </c>
       <c r="I674" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J674" s="3">
         <v>0</v>
@@ -58235,7 +58235,7 @@
         <v>3.2</v>
       </c>
       <c r="I675" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J675" s="3">
         <v>0</v>
@@ -58312,7 +58312,7 @@
         <v>5</v>
       </c>
       <c r="I676" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J676" s="3">
         <v>0</v>
@@ -58389,7 +58389,7 @@
         <v>5</v>
       </c>
       <c r="I677" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J677" s="3">
         <v>0</v>
@@ -58466,7 +58466,7 @@
         <v>-0.1</v>
       </c>
       <c r="I678" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J678" s="3">
         <v>0</v>
@@ -58543,7 +58543,7 @@
         <v>5</v>
       </c>
       <c r="I679" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J679" s="3">
         <v>0</v>
@@ -58620,7 +58620,7 @@
         <v>5</v>
       </c>
       <c r="I680" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J680" s="3">
         <v>0</v>
@@ -58697,7 +58697,7 @@
         <v>2.9</v>
       </c>
       <c r="I681" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J681" s="3">
         <v>0</v>
@@ -58774,7 +58774,7 @@
         <v>4.7</v>
       </c>
       <c r="I682" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J682" s="3">
         <v>0</v>
@@ -58851,7 +58851,7 @@
         <v>1.6</v>
       </c>
       <c r="I683" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J683" s="3">
         <v>0</v>
@@ -58928,7 +58928,7 @@
         <v>4.5</v>
       </c>
       <c r="I684" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J684" s="3">
         <v>0</v>
@@ -59005,7 +59005,7 @@
         <v>5</v>
       </c>
       <c r="I685" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J685" s="3">
         <v>0</v>
@@ -59082,7 +59082,7 @@
         <v>5</v>
       </c>
       <c r="I686" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J686" s="3">
         <v>0</v>
@@ -59159,7 +59159,7 @@
         <v>5</v>
       </c>
       <c r="I687" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J687" s="3">
         <v>0</v>
@@ -59236,7 +59236,7 @@
         <v>5</v>
       </c>
       <c r="I688" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J688" s="3">
         <v>0</v>
@@ -59313,7 +59313,7 @@
         <v>3.2</v>
       </c>
       <c r="I689" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J689" s="3">
         <v>0</v>
@@ -59390,7 +59390,7 @@
         <v>2</v>
       </c>
       <c r="I690" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J690" s="3">
         <v>0</v>
@@ -59467,7 +59467,7 @@
         <v>5</v>
       </c>
       <c r="I691" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J691" s="3">
         <v>0</v>
@@ -59544,7 +59544,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="I692" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J692" s="3">
         <v>0</v>
@@ -59621,7 +59621,7 @@
         <v>5</v>
       </c>
       <c r="I693" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J693" s="3">
         <v>0</v>
@@ -59698,7 +59698,7 @@
         <v>5</v>
       </c>
       <c r="I694" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J694" s="3">
         <v>0</v>
@@ -59775,7 +59775,7 @@
         <v>1.5</v>
       </c>
       <c r="I695" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J695" s="3">
         <v>0</v>
@@ -59852,7 +59852,7 @@
         <v>5</v>
       </c>
       <c r="I696" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J696" s="3">
         <v>0</v>
@@ -59929,7 +59929,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I697" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J697" s="3">
         <v>0</v>
@@ -60006,7 +60006,7 @@
         <v>5</v>
       </c>
       <c r="I698" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J698" s="3">
         <v>0</v>
@@ -60083,7 +60083,7 @@
         <v>5</v>
       </c>
       <c r="I699" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J699" s="3">
         <v>0</v>
@@ -60160,7 +60160,7 @@
         <v>5</v>
       </c>
       <c r="I700" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J700" s="3">
         <v>0</v>
@@ -60237,7 +60237,7 @@
         <v>5</v>
       </c>
       <c r="I701" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J701" s="3">
         <v>0</v>
@@ -60314,7 +60314,7 @@
         <v>1.7</v>
       </c>
       <c r="I702" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J702" s="3">
         <v>0</v>
@@ -60391,7 +60391,7 @@
         <v>5</v>
       </c>
       <c r="I703" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J703" s="3">
         <v>0</v>
@@ -60468,7 +60468,7 @@
         <v>3.6</v>
       </c>
       <c r="I704" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J704" s="3">
         <v>0</v>
@@ -60545,7 +60545,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="I705" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J705" s="3">
         <v>0</v>
@@ -60622,7 +60622,7 @@
         <v>5</v>
       </c>
       <c r="I706" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J706" s="3">
         <v>0</v>
@@ -60699,7 +60699,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I707" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J707" s="3">
         <v>0</v>
@@ -60776,7 +60776,7 @@
         <v>2.7</v>
       </c>
       <c r="I708" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J708" s="3">
         <v>0</v>
@@ -60853,7 +60853,7 @@
         <v>0.2</v>
       </c>
       <c r="I709" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J709" s="3">
         <v>0</v>
@@ -60930,7 +60930,7 @@
         <v>5</v>
       </c>
       <c r="I710" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J710" s="3">
         <v>0</v>
@@ -61007,7 +61007,7 @@
         <v>7.7</v>
       </c>
       <c r="I711" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J711" s="3">
         <v>0</v>
@@ -61084,7 +61084,7 @@
         <v>0.2</v>
       </c>
       <c r="I712" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J712" s="3">
         <v>0</v>
@@ -61161,7 +61161,7 @@
         <v>10</v>
       </c>
       <c r="I713" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J713" s="3">
         <v>0</v>
@@ -61238,7 +61238,7 @@
         <v>5</v>
       </c>
       <c r="I714" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J714" s="3">
         <v>0</v>
@@ -61315,7 +61315,7 @@
         <v>15</v>
       </c>
       <c r="I715" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J715" s="3">
         <v>0</v>
@@ -61392,7 +61392,7 @@
         <v>7</v>
       </c>
       <c r="I716" s="3">
-        <v>0</v>
+        <v>14.96</v>
       </c>
       <c r="J716" s="3">
         <v>0</v>
@@ -61469,7 +61469,7 @@
         <v>3</v>
       </c>
       <c r="I717" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J717" s="3">
         <v>0</v>
@@ -61546,7 +61546,7 @@
         <v>8</v>
       </c>
       <c r="I718" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J718" s="3">
         <v>0</v>
@@ -61623,7 +61623,7 @@
         <v>5</v>
       </c>
       <c r="I719" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J719" s="3">
         <v>0</v>
@@ -61700,7 +61700,7 @@
         <v>5</v>
       </c>
       <c r="I720" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J720" s="3">
         <v>0</v>
@@ -61777,7 +61777,7 @@
         <v>1</v>
       </c>
       <c r="I721" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J721" s="3">
         <v>0</v>
@@ -61854,7 +61854,7 @@
         <v>2.5</v>
       </c>
       <c r="I722" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J722" s="3">
         <v>0</v>
@@ -61931,7 +61931,7 @@
         <v>9</v>
       </c>
       <c r="I723" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J723" s="3">
         <v>0</v>
@@ -62008,7 +62008,7 @@
         <v>0.9</v>
       </c>
       <c r="I724" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J724" s="3">
         <v>0</v>
@@ -62085,7 +62085,7 @@
         <v>10</v>
       </c>
       <c r="I725" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J725" s="3">
         <v>0</v>
@@ -62162,7 +62162,7 @@
         <v>2</v>
       </c>
       <c r="I726" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J726" s="3">
         <v>0</v>
@@ -62239,7 +62239,7 @@
         <v>5</v>
       </c>
       <c r="I727" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J727" s="3">
         <v>0</v>
@@ -62316,7 +62316,7 @@
         <v>0</v>
       </c>
       <c r="I728" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J728" s="3">
         <v>0</v>
@@ -62393,7 +62393,7 @@
         <v>6.7</v>
       </c>
       <c r="I729" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J729" s="3">
         <v>0</v>
@@ -62470,7 +62470,7 @@
         <v>5</v>
       </c>
       <c r="I730" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J730" s="3">
         <v>0</v>
@@ -62547,7 +62547,7 @@
         <v>5</v>
       </c>
       <c r="I731" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J731" s="3">
         <v>0</v>
@@ -62624,7 +62624,7 @@
         <v>4</v>
       </c>
       <c r="I732" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J732" s="3">
         <v>0</v>
@@ -62701,7 +62701,7 @@
         <v>10</v>
       </c>
       <c r="I733" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J733" s="3">
         <v>0</v>
@@ -62778,7 +62778,7 @@
         <v>10</v>
       </c>
       <c r="I734" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J734" s="3">
         <v>0</v>
@@ -62855,7 +62855,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="I735" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J735" s="3">
         <v>0</v>
@@ -62932,7 +62932,7 @@
         <v>12.5</v>
       </c>
       <c r="I736" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J736" s="3">
         <v>0</v>
@@ -63009,7 +63009,7 @@
         <v>4.7</v>
       </c>
       <c r="I737" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J737" s="3">
         <v>0</v>
@@ -63086,7 +63086,7 @@
         <v>5</v>
       </c>
       <c r="I738" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J738" s="3">
         <v>0</v>
@@ -63163,7 +63163,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I739" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J739" s="3">
         <v>0</v>
@@ -63240,7 +63240,7 @@
         <v>5</v>
       </c>
       <c r="I740" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J740" s="3">
         <v>0</v>
@@ -63317,7 +63317,7 @@
         <v>10</v>
       </c>
       <c r="I741" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J741" s="3">
         <v>0</v>
@@ -63394,7 +63394,7 @@
         <v>5</v>
       </c>
       <c r="I742" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J742" s="3">
         <v>0</v>
@@ -63471,7 +63471,7 @@
         <v>3</v>
       </c>
       <c r="I743" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J743" s="3">
         <v>0</v>
@@ -63548,7 +63548,7 @@
         <v>10</v>
       </c>
       <c r="I744" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J744" s="3">
         <v>0</v>
@@ -63625,7 +63625,7 @@
         <v>5</v>
       </c>
       <c r="I745" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J745" s="3">
         <v>0</v>
@@ -63702,7 +63702,7 @@
         <v>5</v>
       </c>
       <c r="I746" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J746" s="3">
         <v>0</v>
@@ -63779,7 +63779,7 @@
         <v>0</v>
       </c>
       <c r="I747" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J747" s="3">
         <v>0</v>
@@ -63856,7 +63856,7 @@
         <v>0</v>
       </c>
       <c r="I748" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J748" s="3">
         <v>0</v>
@@ -63933,7 +63933,7 @@
         <v>3</v>
       </c>
       <c r="I749" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J749" s="3">
         <v>0</v>
@@ -64010,7 +64010,7 @@
         <v>0</v>
       </c>
       <c r="I750" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J750" s="3">
         <v>0</v>
@@ -64087,7 +64087,7 @@
         <v>0</v>
       </c>
       <c r="I751" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J751" s="3">
         <v>0</v>
@@ -64164,7 +64164,7 @@
         <v>4</v>
       </c>
       <c r="I752" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J752" s="3">
         <v>0</v>
@@ -64241,7 +64241,7 @@
         <v>0</v>
       </c>
       <c r="I753" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J753" s="3">
         <v>0</v>
@@ -64318,7 +64318,7 @@
         <v>10</v>
       </c>
       <c r="I754" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J754" s="3">
         <v>0</v>
@@ -64395,7 +64395,7 @@
         <v>10</v>
       </c>
       <c r="I755" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J755" s="3">
         <v>0</v>
@@ -64472,7 +64472,7 @@
         <v>2</v>
       </c>
       <c r="I756" s="3">
-        <v>0</v>
+        <v>9.17</v>
       </c>
       <c r="J756" s="3">
         <v>0</v>
@@ -64549,7 +64549,7 @@
         <v>10</v>
       </c>
       <c r="I757" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J757" s="3">
         <v>0</v>
@@ -64626,7 +64626,7 @@
         <v>9</v>
       </c>
       <c r="I758" s="3">
-        <v>0</v>
+        <v>11.440000000000001</v>
       </c>
       <c r="J758" s="3">
         <v>0</v>
@@ -64703,7 +64703,7 @@
         <v>5</v>
       </c>
       <c r="I759" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J759" s="3">
         <v>0</v>
@@ -64780,7 +64780,7 @@
         <v>9</v>
       </c>
       <c r="I760" s="3">
-        <v>0</v>
+        <v>13.32</v>
       </c>
       <c r="J760" s="3">
         <v>0</v>
@@ -64857,7 +64857,7 @@
         <v>10</v>
       </c>
       <c r="I761" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J761" s="3">
         <v>0</v>
@@ -64934,7 +64934,7 @@
         <v>10</v>
       </c>
       <c r="I762" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J762" s="3">
         <v>0</v>
@@ -65011,7 +65011,7 @@
         <v>5</v>
       </c>
       <c r="I763" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J763" s="3">
         <v>0</v>
@@ -65088,7 +65088,7 @@
         <v>6.7</v>
       </c>
       <c r="I764" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J764" s="3">
         <v>0</v>
@@ -65165,7 +65165,7 @@
         <v>12.3</v>
       </c>
       <c r="I765" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J765" s="3">
         <v>0</v>
@@ -65242,7 +65242,7 @@
         <v>3.6</v>
       </c>
       <c r="I766" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J766" s="3">
         <v>0</v>
@@ -65319,7 +65319,7 @@
         <v>0.9</v>
       </c>
       <c r="I767" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J767" s="3">
         <v>0</v>
@@ -65396,7 +65396,7 @@
         <v>7</v>
       </c>
       <c r="I768" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J768" s="3">
         <v>0</v>
@@ -65473,7 +65473,7 @@
         <v>0</v>
       </c>
       <c r="I769" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J769" s="3">
         <v>0</v>
@@ -65550,7 +65550,7 @@
         <v>7</v>
       </c>
       <c r="I770" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J770" s="3">
         <v>0</v>
@@ -65627,7 +65627,7 @@
         <v>8</v>
       </c>
       <c r="I771" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J771" s="3">
         <v>0</v>
@@ -65704,7 +65704,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="I772" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J772" s="3">
         <v>0</v>
@@ -65781,7 +65781,7 @@
         <v>5</v>
       </c>
       <c r="I773" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J773" s="3">
         <v>0</v>
@@ -65858,7 +65858,7 @@
         <v>5.5</v>
       </c>
       <c r="I774" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J774" s="3">
         <v>0</v>
@@ -65935,7 +65935,7 @@
         <v>2.9</v>
       </c>
       <c r="I775" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J775" s="3">
         <v>0</v>
@@ -66012,7 +66012,7 @@
         <v>5</v>
       </c>
       <c r="I776" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J776" s="3">
         <v>0</v>
@@ -66089,7 +66089,7 @@
         <v>5</v>
       </c>
       <c r="I777" s="3">
-        <v>0</v>
+        <v>5.1199999999999992</v>
       </c>
       <c r="J777" s="3">
         <v>0</v>
@@ -66166,7 +66166,7 @@
         <v>5</v>
       </c>
       <c r="I778" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J778" s="3">
         <v>0</v>
@@ -66243,7 +66243,7 @@
         <v>1</v>
       </c>
       <c r="I779" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J779" s="3">
         <v>0</v>
@@ -66320,7 +66320,7 @@
         <v>4</v>
       </c>
       <c r="I780" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J780" s="3">
         <v>0</v>
@@ -66397,7 +66397,7 @@
         <v>5</v>
       </c>
       <c r="I781" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J781" s="3">
         <v>0</v>
@@ -66474,7 +66474,7 @@
         <v>5</v>
       </c>
       <c r="I782" s="3">
-        <v>0</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="J782" s="3">
         <v>0</v>
@@ -66551,7 +66551,7 @@
         <v>10</v>
       </c>
       <c r="I783" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J783" s="3">
         <v>0</v>
@@ -66628,7 +66628,7 @@
         <v>2</v>
       </c>
       <c r="I784" s="3">
-        <v>0</v>
+        <v>7.0600000000000005</v>
       </c>
       <c r="J784" s="3">
         <v>0</v>
@@ -66705,7 +66705,7 @@
         <v>0</v>
       </c>
       <c r="I785" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J785" s="3">
         <v>0</v>
@@ -66782,7 +66782,7 @@
         <v>15</v>
       </c>
       <c r="I786" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J786" s="3">
         <v>0</v>
@@ -66859,7 +66859,7 @@
         <v>2</v>
       </c>
       <c r="I787" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J787" s="3">
         <v>0</v>
@@ -66936,7 +66936,7 @@
         <v>10</v>
       </c>
       <c r="I788" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J788" s="3">
         <v>0</v>
@@ -67013,7 +67013,7 @@
         <v>4</v>
       </c>
       <c r="I789" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J789" s="3">
         <v>0</v>
@@ -67090,7 +67090,7 @@
         <v>5</v>
       </c>
       <c r="I790" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J790" s="3">
         <v>0</v>
@@ -67167,7 +67167,7 @@
         <v>2.5</v>
       </c>
       <c r="I791" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J791" s="3">
         <v>0</v>
@@ -67244,7 +67244,7 @@
         <v>15</v>
       </c>
       <c r="I792" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J792" s="3">
         <v>0</v>
@@ -67321,7 +67321,7 @@
         <v>10</v>
       </c>
       <c r="I793" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J793" s="3">
         <v>0</v>
@@ -67398,7 +67398,7 @@
         <v>10</v>
       </c>
       <c r="I794" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J794" s="3">
         <v>0</v>
@@ -67475,7 +67475,7 @@
         <v>5</v>
       </c>
       <c r="I795" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J795" s="3">
         <v>0</v>
@@ -67552,7 +67552,7 @@
         <v>5</v>
       </c>
       <c r="I796" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J796" s="3">
         <v>0</v>
@@ -67629,7 +67629,7 @@
         <v>5</v>
       </c>
       <c r="I797" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J797" s="3">
         <v>0</v>
@@ -67706,7 +67706,7 @@
         <v>10</v>
       </c>
       <c r="I798" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J798" s="3">
         <v>0</v>
@@ -67783,7 +67783,7 @@
         <v>5</v>
       </c>
       <c r="I799" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J799" s="3">
         <v>0</v>
@@ -67860,7 +67860,7 @@
         <v>5</v>
       </c>
       <c r="I800" s="3">
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="J800" s="3">
         <v>0</v>
@@ -67937,7 +67937,7 @@
         <v>2</v>
       </c>
       <c r="I801" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J801" s="3">
         <v>0</v>
@@ -68014,7 +68014,7 @@
         <v>3</v>
       </c>
       <c r="I802" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J802" s="3">
         <v>0</v>
@@ -68091,7 +68091,7 @@
         <v>5</v>
       </c>
       <c r="I803" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J803" s="3">
         <v>0</v>
@@ -68168,7 +68168,7 @@
         <v>0</v>
       </c>
       <c r="I804" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J804" s="3">
         <v>0</v>
@@ -68245,7 +68245,7 @@
         <v>2</v>
       </c>
       <c r="I805" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J805" s="3">
         <v>0</v>
@@ -68322,7 +68322,7 @@
         <v>10</v>
       </c>
       <c r="I806" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J806" s="3">
         <v>0</v>
@@ -68399,7 +68399,7 @@
         <v>10</v>
       </c>
       <c r="I807" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J807" s="3">
         <v>0</v>
@@ -68476,7 +68476,7 @@
         <v>5</v>
       </c>
       <c r="I808" s="3">
-        <v>0</v>
+        <v>6.23</v>
       </c>
       <c r="J808" s="3">
         <v>0</v>
@@ -68553,7 +68553,7 @@
         <v>10</v>
       </c>
       <c r="I809" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J809" s="3">
         <v>0</v>
@@ -68630,7 +68630,7 @@
         <v>1.7</v>
       </c>
       <c r="I810" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J810" s="3">
         <v>0</v>
@@ -68707,7 +68707,7 @@
         <v>0</v>
       </c>
       <c r="I811" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J811" s="3">
         <v>0</v>
@@ -68784,7 +68784,7 @@
         <v>4</v>
       </c>
       <c r="I812" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J812" s="3">
         <v>0</v>
@@ -68861,7 +68861,7 @@
         <v>0</v>
       </c>
       <c r="I813" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J813" s="3">
         <v>0</v>
@@ -68938,7 +68938,7 @@
         <v>5</v>
       </c>
       <c r="I814" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J814" s="3">
         <v>0</v>
@@ -69015,7 +69015,7 @@
         <v>3</v>
       </c>
       <c r="I815" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J815" s="3">
         <v>0</v>
@@ -69092,7 +69092,7 @@
         <v>5</v>
       </c>
       <c r="I816" s="3">
-        <v>0</v>
+        <v>7.91</v>
       </c>
       <c r="J816" s="3">
         <v>0</v>
@@ -69169,7 +69169,7 @@
         <v>5</v>
       </c>
       <c r="I817" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J817" s="3">
         <v>0</v>
@@ -69246,7 +69246,7 @@
         <v>4</v>
       </c>
       <c r="I818" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J818" s="3">
         <v>0</v>
@@ -69323,7 +69323,7 @@
         <v>10</v>
       </c>
       <c r="I819" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J819" s="3">
         <v>0</v>
@@ -69400,7 +69400,7 @@
         <v>6.2</v>
       </c>
       <c r="I820" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J820" s="3">
         <v>0</v>
@@ -69477,7 +69477,7 @@
         <v>10</v>
       </c>
       <c r="I821" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J821" s="3">
         <v>0</v>
@@ -69554,7 +69554,7 @@
         <v>7</v>
       </c>
       <c r="I822" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J822" s="3">
         <v>0</v>
@@ -69631,7 +69631,7 @@
         <v>5</v>
       </c>
       <c r="I823" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J823" s="3">
         <v>0</v>
@@ -69708,7 +69708,7 @@
         <v>5</v>
       </c>
       <c r="I824" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J824" s="3">
         <v>0</v>
@@ -69785,7 +69785,7 @@
         <v>10</v>
       </c>
       <c r="I825" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J825" s="3">
         <v>0</v>
@@ -69862,7 +69862,7 @@
         <v>5</v>
       </c>
       <c r="I826" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J826" s="3">
         <v>0</v>
@@ -69939,7 +69939,7 @@
         <v>10</v>
       </c>
       <c r="I827" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J827" s="3">
         <v>0</v>
@@ -70016,7 +70016,7 @@
         <v>5</v>
       </c>
       <c r="I828" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J828" s="3">
         <v>0</v>
@@ -70093,7 +70093,7 @@
         <v>5</v>
       </c>
       <c r="I829" s="3">
-        <v>0</v>
+        <v>6.65</v>
       </c>
       <c r="J829" s="3">
         <v>0</v>
@@ -70170,7 +70170,7 @@
         <v>4</v>
       </c>
       <c r="I830" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J830" s="3">
         <v>0</v>
@@ -70247,7 +70247,7 @@
         <v>1.8</v>
       </c>
       <c r="I831" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J831" s="3">
         <v>0</v>
@@ -70324,7 +70324,7 @@
         <v>10</v>
       </c>
       <c r="I832" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J832" s="3">
         <v>0</v>
@@ -70401,7 +70401,7 @@
         <v>1</v>
       </c>
       <c r="I833" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J833" s="3">
         <v>0</v>
@@ -70478,7 +70478,7 @@
         <v>4</v>
       </c>
       <c r="I834" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J834" s="3">
         <v>0</v>
@@ -70555,7 +70555,7 @@
         <v>5.6</v>
       </c>
       <c r="I835" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J835" s="3">
         <v>0</v>
@@ -70632,7 +70632,7 @@
         <v>2.7</v>
       </c>
       <c r="I836" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J836" s="3">
         <v>0</v>
@@ -70709,7 +70709,7 @@
         <v>5</v>
       </c>
       <c r="I837" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J837" s="3">
         <v>0</v>
@@ -70786,7 +70786,7 @@
         <v>5</v>
       </c>
       <c r="I838" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J838" s="3">
         <v>0</v>
@@ -70863,7 +70863,7 @@
         <v>15</v>
       </c>
       <c r="I839" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J839" s="3">
         <v>0</v>
@@ -70940,7 +70940,7 @@
         <v>5</v>
       </c>
       <c r="I840" s="3">
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="J840" s="3">
         <v>0</v>
@@ -71017,7 +71017,7 @@
         <v>3.8</v>
       </c>
       <c r="I841" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J841" s="3">
         <v>0</v>
@@ -71094,7 +71094,7 @@
         <v>1.2</v>
       </c>
       <c r="I842" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J842" s="3">
         <v>0</v>
@@ -71171,7 +71171,7 @@
         <v>0</v>
       </c>
       <c r="I843" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J843" s="3">
         <v>0</v>
@@ -71248,7 +71248,7 @@
         <v>5</v>
       </c>
       <c r="I844" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J844" s="3">
         <v>0</v>
@@ -71325,7 +71325,7 @@
         <v>1.2</v>
       </c>
       <c r="I845" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J845" s="3">
         <v>0</v>
@@ -71402,7 +71402,7 @@
         <v>4.7</v>
       </c>
       <c r="I846" s="3">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="J846" s="3">
         <v>0</v>
@@ -71479,7 +71479,7 @@
         <v>3</v>
       </c>
       <c r="I847" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J847" s="3">
         <v>0</v>
@@ -71556,7 +71556,7 @@
         <v>1</v>
       </c>
       <c r="I848" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J848" s="3">
         <v>0</v>
@@ -71633,7 +71633,7 @@
         <v>-0.5</v>
       </c>
       <c r="I849" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J849" s="3">
         <v>0</v>
@@ -71710,7 +71710,7 @@
         <v>4</v>
       </c>
       <c r="I850" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J850" s="3">
         <v>0</v>
@@ -71787,7 +71787,7 @@
         <v>6.6</v>
       </c>
       <c r="I851" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J851" s="3">
         <v>0</v>
@@ -71864,7 +71864,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="I852" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J852" s="3">
         <v>0</v>
@@ -71941,7 +71941,7 @@
         <v>3</v>
       </c>
       <c r="I853" s="3">
-        <v>0</v>
+        <v>6.23</v>
       </c>
       <c r="J853" s="3">
         <v>0</v>
@@ -72018,7 +72018,7 @@
         <v>15</v>
       </c>
       <c r="I854" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J854" s="3">
         <v>0</v>
@@ -72095,7 +72095,7 @@
         <v>0</v>
       </c>
       <c r="I855" s="3">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="J855" s="3">
         <v>0</v>
@@ -72172,7 +72172,7 @@
         <v>0</v>
       </c>
       <c r="I856" s="3">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="J856" s="3">
         <v>0</v>
@@ -72249,7 +72249,7 @@
         <v>0</v>
       </c>
       <c r="I857" s="3">
-        <v>0</v>
+        <v>8.33</v>
       </c>
       <c r="J857" s="3">
         <v>0</v>
@@ -72326,7 +72326,7 @@
         <v>0</v>
       </c>
       <c r="I858" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J858" s="3">
         <v>0</v>
@@ -72403,7 +72403,7 @@
         <v>0</v>
       </c>
       <c r="I859" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J859" s="3">
         <v>0</v>
@@ -72480,7 +72480,7 @@
         <v>0</v>
       </c>
       <c r="I860" s="3">
-        <v>0</v>
+        <v>4.01</v>
       </c>
       <c r="J860" s="3">
         <v>0</v>
@@ -72557,7 +72557,7 @@
         <v>10</v>
       </c>
       <c r="I861" s="3">
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="J861" s="3">
         <v>0</v>
@@ -72634,7 +72634,7 @@
         <v>0</v>
       </c>
       <c r="I862" s="3">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="J862" s="3">
         <v>0</v>
@@ -72711,7 +72711,7 @@
         <v>5</v>
       </c>
       <c r="I863" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J863" s="3">
         <v>0</v>
@@ -72788,7 +72788,7 @@
         <v>0</v>
       </c>
       <c r="I864" s="3">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="J864" s="3">
         <v>0</v>
@@ -72865,7 +72865,7 @@
         <v>1</v>
       </c>
       <c r="I865" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J865" s="3">
         <v>0</v>
@@ -72942,7 +72942,7 @@
         <v>0</v>
       </c>
       <c r="I866" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J866" s="3">
         <v>0</v>
@@ -73019,7 +73019,7 @@
         <v>0</v>
       </c>
       <c r="I867" s="3">
-        <v>0</v>
+        <v>4.59</v>
       </c>
       <c r="J867" s="3">
         <v>0</v>
@@ -73096,7 +73096,7 @@
         <v>0</v>
       </c>
       <c r="I868" s="3">
-        <v>0</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="J868" s="3">
         <v>0</v>
@@ -73173,7 +73173,7 @@
         <v>0</v>
       </c>
       <c r="I869" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J869" s="3">
         <v>0</v>
@@ -73250,7 +73250,7 @@
         <v>0</v>
       </c>
       <c r="I870" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J870" s="3">
         <v>0</v>
@@ -73327,7 +73327,7 @@
         <v>0</v>
       </c>
       <c r="I871" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J871" s="3">
         <v>0</v>
@@ -73404,7 +73404,7 @@
         <v>0</v>
       </c>
       <c r="I872" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J872" s="3">
         <v>0</v>
@@ -73481,7 +73481,7 @@
         <v>0</v>
       </c>
       <c r="I873" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J873" s="3">
         <v>0</v>
@@ -73558,7 +73558,7 @@
         <v>0</v>
       </c>
       <c r="I874" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J874" s="3">
         <v>0</v>
@@ -73635,7 +73635,7 @@
         <v>0</v>
       </c>
       <c r="I875" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J875" s="3">
         <v>0</v>
@@ -73712,7 +73712,7 @@
         <v>0</v>
       </c>
       <c r="I876" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J876" s="3">
         <v>0</v>
@@ -73789,7 +73789,7 @@
         <v>0</v>
       </c>
       <c r="I877" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J877" s="3">
         <v>0</v>
@@ -73866,7 +73866,7 @@
         <v>0</v>
       </c>
       <c r="I878" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J878" s="3">
         <v>0</v>
@@ -73943,7 +73943,7 @@
         <v>0</v>
       </c>
       <c r="I879" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J879" s="3">
         <v>0</v>
@@ -74020,7 +74020,7 @@
         <v>0</v>
       </c>
       <c r="I880" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J880" s="3">
         <v>0</v>
@@ -74097,7 +74097,7 @@
         <v>0</v>
       </c>
       <c r="I881" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J881" s="3">
         <v>0</v>
@@ -74174,7 +74174,7 @@
         <v>0</v>
       </c>
       <c r="I882" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J882" s="3">
         <v>0</v>
@@ -74251,7 +74251,7 @@
         <v>0</v>
       </c>
       <c r="I883" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J883" s="3">
         <v>0</v>
@@ -74328,7 +74328,7 @@
         <v>0</v>
       </c>
       <c r="I884" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J884" s="3">
         <v>0</v>
@@ -74405,7 +74405,7 @@
         <v>0</v>
       </c>
       <c r="I885" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J885" s="3">
         <v>0</v>
@@ -74482,7 +74482,7 @@
         <v>0</v>
       </c>
       <c r="I886" s="3">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J886" s="3">
         <v>0</v>
@@ -74559,7 +74559,7 @@
         <v>0</v>
       </c>
       <c r="I887" s="3">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="J887" s="3">
         <v>0</v>
@@ -74636,7 +74636,7 @@
         <v>0</v>
       </c>
       <c r="I888" s="3">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="J888" s="3">
         <v>0</v>
@@ -74713,7 +74713,7 @@
         <v>0</v>
       </c>
       <c r="I889" s="3">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="J889" s="3">
         <v>0</v>
@@ -74790,7 +74790,7 @@
         <v>0</v>
       </c>
       <c r="I890" s="3">
-        <v>0</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="J890" s="3">
         <v>0</v>
@@ -74867,7 +74867,7 @@
         <v>0</v>
       </c>
       <c r="I891" s="3">
-        <v>0</v>
+        <v>4.88</v>
       </c>
       <c r="J891" s="3">
         <v>0</v>
@@ -74944,7 +74944,7 @@
         <v>0</v>
       </c>
       <c r="I892" s="3">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="J892" s="3">
         <v>0</v>
@@ -75021,7 +75021,7 @@
         <v>0</v>
       </c>
       <c r="I893" s="3">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="J893" s="3">
         <v>0</v>
@@ -75098,7 +75098,7 @@
         <v>0</v>
       </c>
       <c r="I894" s="3">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="J894" s="3">
         <v>0</v>
@@ -75175,7 +75175,7 @@
         <v>0</v>
       </c>
       <c r="I895" s="3">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="J895" s="3">
         <v>0</v>
@@ -75252,7 +75252,7 @@
         <v>0</v>
       </c>
       <c r="I896" s="3">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="J896" s="3">
         <v>0</v>
@@ -75329,7 +75329,7 @@
         <v>0</v>
       </c>
       <c r="I897" s="3">
-        <v>0</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J897" s="3">
         <v>0</v>
@@ -75406,7 +75406,7 @@
         <v>0</v>
       </c>
       <c r="I898" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J898" s="3">
         <v>0</v>
@@ -75483,7 +75483,7 @@
         <v>0</v>
       </c>
       <c r="I899" s="3">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="J899" s="3">
         <v>0</v>
@@ -75560,7 +75560,7 @@
         <v>0</v>
       </c>
       <c r="I900" s="3">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J900" s="3">
         <v>0</v>
@@ -75637,7 +75637,7 @@
         <v>0</v>
       </c>
       <c r="I901" s="3">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="J901" s="3">
         <v>0</v>
@@ -75714,7 +75714,7 @@
         <v>0</v>
       </c>
       <c r="I902" s="3">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="J902" s="3">
         <v>0</v>
@@ -75791,7 +75791,7 @@
         <v>0</v>
       </c>
       <c r="I903" s="3">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="J903" s="3">
         <v>0</v>
@@ -75868,7 +75868,7 @@
         <v>0</v>
       </c>
       <c r="I904" s="3">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="J904" s="3">
         <v>0</v>
@@ -75945,7 +75945,7 @@
         <v>0</v>
       </c>
       <c r="I905" s="3">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="J905" s="3">
         <v>0</v>
@@ -76022,7 +76022,7 @@
         <v>0</v>
       </c>
       <c r="I906" s="3">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="J906" s="3">
         <v>0</v>
@@ -76099,7 +76099,7 @@
         <v>0</v>
       </c>
       <c r="I907" s="3">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J907" s="3">
         <v>0</v>
@@ -76176,7 +76176,7 @@
         <v>0</v>
       </c>
       <c r="I908" s="3">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J908" s="3">
         <v>0</v>
@@ -76253,7 +76253,7 @@
         <v>0</v>
       </c>
       <c r="I909" s="3">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J909" s="3">
         <v>0</v>
@@ -77614,7 +77614,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y926"/>
+  <autoFilter ref="A1:Y1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
